--- a/backend/fms_core/tests/service-templates/Library_preparation_v4_1_0.xlsx
+++ b/backend/fms_core/tests/service-templates/Library_preparation_v4_1_0.xlsx
@@ -212,565 +212,565 @@
     <t xml:space="preserve">batch_3</t>
   </si>
   <si>
+    <t xml:space="preserve">DNBSEQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library Batch Comment 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enzymatic fragmentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miRNA NEBNext </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eppendorf 1 Post-PCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phusion® High-Fidelity DNA Polymerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Container Barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Container Coordinates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library Container Barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library Container Coordinates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library Container Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library Container Kind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library Parent Container Barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library Parent Container Coordinates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Volume Used (uL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library Volume (uL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strandedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workflow Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_Sample_DNA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_Container_BC_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_Container_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDT_10nt_UDI_Tr_Seq_Adapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double stranded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiment Run Info Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step complete - Move to next step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_Sample_DNA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single stranded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_Sample_DNA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_Sample_DNA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_Sample_RNA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_10x_Genomics_scRNA_V1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-3A-A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_Sample_RNA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-3A-A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiment Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technician Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermocycler used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container Kind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platfrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICES BY SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDT 10nt UDI TruSeq Adapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDT UDI UMI 384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agilent SureSelect XT V2 96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agilent SureSelect XT V2 384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGIEasy PF Adapters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGIEasy UDB Primers Adapter Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_10x_Genomics_scDNA_scRNA_V2_Linked_Reads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_10x_Genomics_scATAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_10x_Genomics_Dual_Index_NT_Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNext_Unique_Dual_Index_non_UMI_Set1_NEB_E6440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNext_Unique_Dual_Index_non_UMI_Set2_NEB_E6442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNext_Unique_Dual_Index_non_UMI_Set3_NEB_E6444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNext_Unique_Dual_Index_non_UMI_Set4_NEB_E6446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illumina_IDT_TruSeq_DNA_RNA_UD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDTU7001-IDTU5001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSXTHSV2701-SSXTHSV2501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSXTHSV27001-SSXTHSV25001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGI01_A01_Barcode_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGI_Barcode1_UDB_001-MGI_Barcode2_UDB_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-NA-A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI_NT7_A01-SI_NT5_A01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7_A01-NEBNextUDI5_A01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7Set2_A01-NEBNextUDI5Set2_A01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7Set3_A01-NEBNextUDI5Set3_A01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7Set4_A01-NEBNextUDI5Set4_A01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDI70001-UDI50001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eppendorf 2 Pre-PCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96-well plate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_002-IDT_10nt_UDI_i5_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDTU7002-IDTU5002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSXTHSV2702-SSXTHSV2502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSXTHSV27002-SSXTHSV25002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGI02_B01_Barcode_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGI_Barcode1_UDB_002-MGI_Barcode2_UDB_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-NA-B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI_NT7_A02-SI_NT5_A02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7_B01-NEBNextUDI5_B01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7Set2_B01-NEBNextUDI5Set2_B01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7Set3_B01-NEBNextUDI5Set3_B01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7Set4_B01-NEBNextUDI5Set4_B01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDI70002-UDI50002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNASeq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick Willett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA NEBNext Ultra II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eppendorf 3 Pre-PCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">384-well plate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_003-IDT_10nt_UDI_i5_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDTU7003-IDTU5003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSXTHSV2703-SSXTHSV2503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSXTHSV27003-SSXTHSV25003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGI03_C01_Barcode_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGI_Barcode1_UDB_003-MGI_Barcode2_UDB_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-3A-A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-NA-C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI_NT7_A03-SI_NT5_A03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7_C01-NEBNextUDI5_C01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7Set2_C01-NEBNextUDI5Set2_C01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7Set3_C01-NEBNextUDI5Set3_C01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7Set4_C01-NEBNextUDI5Set4_C01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDI70003-UDI50003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WGBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agilent SureSelect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eppendorf 4 Pre-PCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tube Strip 2x1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_004-IDT_10nt_UDI_i5_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDTU7004-IDTU5004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSXTHSV2704-SSXTHSV2504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSXTHSV27004-SSXTHSV25004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGI04_D01_Barcode_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGI_Barcode1_UDB_004-MGI_Barcode2_UDB_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-3A-A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-NA-D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI_NT7_A04-SI_NT5_A04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7_D01-NEBNextUDI5_D01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7Set2_D01-NEBNextUDI5Set2_D01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7Set3_D01-NEBNextUDI5Set3_D01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7Set4_D01-NEBNextUDI5Set4_D01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDI70004-UDI50004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marlon Amersi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNASeq TruSeq Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tube Strip 3x1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_005-IDT_10nt_UDI_i5_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDTU7005-IDTU5005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSXTHSV2705-SSXTHSV2505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSXTHSV27005-SSXTHSV25005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGI05_E01_Barcode_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGI_Barcode1_UDB_005-MGI_Barcode2_UDB_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-3A-A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-NA-E1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI_NT7_A05-SI_NT5_A05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7_E01-NEBNextUDI5_E01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7Set2_E01-NEBNextUDI5Set2_E01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7Set3_E01-NEBNextUDI5Set3_E01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7Set4_E01-NEBNextUDI5Set4_E01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDI70005-UDI50005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leïla Drissi Kaitouni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNASeq Ribo Zéro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tube Strip 4x1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_006-IDT_10nt_UDI_i5_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDTU7006-IDTU5006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSXTHSV2706-SSXTHSV2506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSXTHSV27006-SSXTHSV25006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGI06_F01_Barcode_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGI_Barcode1_UDB_006-MGI_Barcode2_UDB_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-A6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-3A-A6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-NA-F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI_NT7_A06-SI_NT5_A06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7_F01-NEBNextUDI5_F01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7Set2_F01-NEBNextUDI5Set2_F01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7Set3_F01-NEBNextUDI5Set3_F01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextUDI7Set4_F01-NEBNextUDI5Set4_F01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDI70006-UDI50006</t>
+  </si>
+  <si>
     <t xml:space="preserve">miRNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNBSEQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library Batch Comment 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enzymatic fragmentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miRNA NEBNext </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eppendorf 1 Post-PCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phusion® High-Fidelity DNA Polymerase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Container Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Container Coordinates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library Container Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library Container Coordinates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library Container Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library Container Kind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library Parent Container Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library Parent Container Coordinates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Volume Used (uL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library Volume (uL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Index Set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strandedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Workflow Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER_Sample_DNA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER_Container_BC_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER_Container_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDT_10nt_UDI_Tr_Seq_Adapter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double stranded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experiment Run Info Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step complete - Move to next step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER_Sample_DNA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single stranded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER_Sample_DNA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER_Sample_DNA4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER_Sample_RNA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_10x_Genomics_scRNA_V1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-3A-A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER_Sample_RNA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-3A-A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experiment Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technician Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thermocycler used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container Kind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platfrom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INDICES BY SET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDT 10nt UDI TruSeq Adapter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDT UDI UMI 384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agilent SureSelect XT V2 96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agilent SureSelect XT V2 384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGIEasy PF Adapters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGIEasy UDB Primers Adapter Kit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_10x_Genomics_scDNA_scRNA_V2_Linked_Reads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_10x_Genomics_scATAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_10x_Genomics_Dual_Index_NT_Series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNext_Unique_Dual_Index_non_UMI_Set1_NEB_E6440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNext_Unique_Dual_Index_non_UMI_Set2_NEB_E6442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNext_Unique_Dual_Index_non_UMI_Set3_NEB_E6444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNext_Unique_Dual_Index_non_UMI_Set4_NEB_E6446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illumina_IDT_TruSeq_DNA_RNA_UD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tube</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDTU7001-IDTU5001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSXTHSV2701-SSXTHSV2501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSXTHSV27001-SSXTHSV25001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGI01_A01_Barcode_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGI_Barcode1_UDB_001-MGI_Barcode2_UDB_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-NA-A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI_NT7_A01-SI_NT5_A01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7_A01-NEBNextUDI5_A01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7Set2_A01-NEBNextUDI5Set2_A01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7Set3_A01-NEBNextUDI5Set3_A01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7Set4_A01-NEBNextUDI5Set4_A01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UDI70001-UDI50001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eppendorf 2 Pre-PCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96-well plate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_002-IDT_10nt_UDI_i5_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDTU7002-IDTU5002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSXTHSV2702-SSXTHSV2502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSXTHSV27002-SSXTHSV25002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGI02_B01_Barcode_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGI_Barcode1_UDB_002-MGI_Barcode2_UDB_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-NA-B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI_NT7_A02-SI_NT5_A02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7_B01-NEBNextUDI5_B01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7Set2_B01-NEBNextUDI5Set2_B01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7Set3_B01-NEBNextUDI5Set3_B01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7Set4_B01-NEBNextUDI5Set4_B01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UDI70002-UDI50002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNASeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patrick Willett</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA NEBNext Ultra II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eppendorf 3 Pre-PCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">384-well plate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_003-IDT_10nt_UDI_i5_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDTU7003-IDTU5003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSXTHSV2703-SSXTHSV2503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSXTHSV27003-SSXTHSV25003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGI03_C01_Barcode_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGI_Barcode1_UDB_003-MGI_Barcode2_UDB_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-3A-A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-NA-C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI_NT7_A03-SI_NT5_A03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7_C01-NEBNextUDI5_C01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7Set2_C01-NEBNextUDI5Set2_C01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7Set3_C01-NEBNextUDI5Set3_C01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7Set4_C01-NEBNextUDI5Set4_C01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UDI70003-UDI50003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WGBS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agilent SureSelect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eppendorf 4 Pre-PCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tube Strip 2x1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_004-IDT_10nt_UDI_i5_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDTU7004-IDTU5004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSXTHSV2704-SSXTHSV2504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSXTHSV27004-SSXTHSV25004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGI04_D01_Barcode_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGI_Barcode1_UDB_004-MGI_Barcode2_UDB_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-3A-A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-NA-D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI_NT7_A04-SI_NT5_A04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7_D01-NEBNextUDI5_D01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7Set2_D01-NEBNextUDI5Set2_D01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7Set3_D01-NEBNextUDI5Set3_D01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7Set4_D01-NEBNextUDI5Set4_D01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UDI70004-UDI50004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marlon Amersi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNASeq TruSeq Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tube Strip 3x1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_005-IDT_10nt_UDI_i5_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDTU7005-IDTU5005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSXTHSV2705-SSXTHSV2505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSXTHSV27005-SSXTHSV25005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGI05_E01_Barcode_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGI_Barcode1_UDB_005-MGI_Barcode2_UDB_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-A5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-3A-A5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-NA-E1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI_NT7_A05-SI_NT5_A05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7_E01-NEBNextUDI5_E01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7Set2_E01-NEBNextUDI5Set2_E01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7Set3_E01-NEBNextUDI5Set3_E01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7Set4_E01-NEBNextUDI5Set4_E01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UDI70005-UDI50005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leïla Drissi Kaitouni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNASeq Ribo Zéro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tube Strip 4x1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_006-IDT_10nt_UDI_i5_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDTU7006-IDTU5006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSXTHSV2706-SSXTHSV2506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSXTHSV27006-SSXTHSV25006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGI06_F01_Barcode_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGI_Barcode1_UDB_006-MGI_Barcode2_UDB_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-A6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-3A-A6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-NA-F1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI_NT7_A06-SI_NT5_A06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7_F01-NEBNextUDI5_F01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7Set2_F01-NEBNextUDI5Set2_F01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7Set3_F01-NEBNextUDI5Set3_F01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNextUDI7Set4_F01-NEBNextUDI5Set4_F01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UDI70006-UDI50006</t>
   </si>
   <si>
     <t xml:space="preserve">RNASeq NEBNext Ultra II</t>
@@ -7775,7 +7775,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -7835,6 +7835,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7944,7 +7950,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -8005,6 +8011,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -8033,7 +8043,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8041,11 +8051,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8132,7 +8142,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.14"/>
@@ -8436,17 +8446,17 @@
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>47</v>
+      <c r="B13" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>31</v>
@@ -8455,31 +8465,31 @@
         <v>30</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" s="14" t="n">
         <v>500</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9063,9 +9073,9 @@
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="15"/>
+      <c r="E48" s="16"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="J48" s="2"/>
@@ -9074,9 +9084,9 @@
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="15"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="15"/>
+      <c r="E49" s="16"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="J49" s="2"/>
@@ -9085,9 +9095,9 @@
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="15"/>
+      <c r="C50" s="16"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="15"/>
+      <c r="E50" s="16"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="J50" s="2"/>
@@ -9096,9 +9106,9 @@
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="15"/>
+      <c r="C51" s="16"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="15"/>
+      <c r="E51" s="16"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="J51" s="2"/>
@@ -9107,9 +9117,9 @@
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="15"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="15"/>
+      <c r="E52" s="16"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="J52" s="2"/>
@@ -9118,9 +9128,9 @@
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="15"/>
+      <c r="C53" s="16"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="15"/>
+      <c r="E53" s="16"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="J53" s="2"/>
@@ -9129,9 +9139,9 @@
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="15"/>
+      <c r="C54" s="16"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="15"/>
+      <c r="E54" s="16"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="J54" s="2"/>
@@ -9140,9 +9150,9 @@
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="15"/>
+      <c r="E55" s="16"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="J55" s="2"/>
@@ -9151,9 +9161,9 @@
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="15"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="15"/>
+      <c r="E56" s="16"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="J56" s="2"/>
@@ -9162,9 +9172,9 @@
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="15"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="15"/>
+      <c r="E57" s="16"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="J57" s="2"/>
@@ -9173,9 +9183,9 @@
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="15"/>
+      <c r="C58" s="16"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="15"/>
+      <c r="E58" s="16"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="J58" s="2"/>
@@ -9184,9 +9194,9 @@
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="15"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="15"/>
+      <c r="E59" s="16"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="J59" s="2"/>
@@ -9195,9 +9205,9 @@
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="15"/>
+      <c r="C60" s="16"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="15"/>
+      <c r="E60" s="16"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="J60" s="2"/>
@@ -9206,9 +9216,9 @@
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="15"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="15"/>
+      <c r="E61" s="16"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="J61" s="2"/>
@@ -9217,9 +9227,9 @@
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="15"/>
+      <c r="E62" s="16"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="J62" s="2"/>
@@ -9228,9 +9238,9 @@
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="15"/>
+      <c r="C63" s="16"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="15"/>
+      <c r="E63" s="16"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="J63" s="2"/>
@@ -9239,9 +9249,9 @@
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="15"/>
+      <c r="C64" s="16"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="15"/>
+      <c r="E64" s="16"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="J64" s="2"/>
@@ -9250,9 +9260,9 @@
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="15"/>
+      <c r="C65" s="16"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="15"/>
+      <c r="E65" s="16"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="J65" s="2"/>
@@ -9261,9 +9271,9 @@
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="15"/>
+      <c r="C66" s="16"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="15"/>
+      <c r="E66" s="16"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="J66" s="2"/>
@@ -9272,9 +9282,9 @@
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="15"/>
+      <c r="C67" s="16"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="15"/>
+      <c r="E67" s="16"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="J67" s="2"/>
@@ -9283,9 +9293,9 @@
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="15"/>
+      <c r="C68" s="16"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="15"/>
+      <c r="E68" s="16"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="J68" s="2"/>
@@ -9294,9 +9304,9 @@
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="15"/>
+      <c r="E69" s="16"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="J69" s="2"/>
@@ -9305,9 +9315,9 @@
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="15"/>
+      <c r="C70" s="16"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="15"/>
+      <c r="E70" s="16"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="J70" s="2"/>
@@ -9316,9 +9326,9 @@
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="15"/>
+      <c r="C71" s="16"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="15"/>
+      <c r="E71" s="16"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="J71" s="2"/>
@@ -9327,9 +9337,9 @@
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="15"/>
+      <c r="C72" s="16"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="15"/>
+      <c r="E72" s="16"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="J72" s="2"/>
@@ -9338,9 +9348,9 @@
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="15"/>
+      <c r="C73" s="16"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="15"/>
+      <c r="E73" s="16"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="J73" s="2"/>
@@ -9349,9 +9359,9 @@
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="15"/>
+      <c r="C74" s="16"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="15"/>
+      <c r="E74" s="16"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="J74" s="2"/>
@@ -9360,9 +9370,9 @@
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="15"/>
+      <c r="C75" s="16"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="15"/>
+      <c r="E75" s="16"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="J75" s="2"/>
@@ -9371,9 +9381,9 @@
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="15"/>
+      <c r="E76" s="16"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="J76" s="2"/>
@@ -9382,9 +9392,9 @@
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="15"/>
+      <c r="C77" s="16"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="15"/>
+      <c r="E77" s="16"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="J77" s="2"/>
@@ -9393,9 +9403,9 @@
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="15"/>
+      <c r="C78" s="16"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="15"/>
+      <c r="E78" s="16"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="J78" s="2"/>
@@ -9404,9 +9414,9 @@
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="15"/>
+      <c r="C79" s="16"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="15"/>
+      <c r="E79" s="16"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="J79" s="2"/>
@@ -9415,9 +9425,9 @@
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="15"/>
+      <c r="C80" s="16"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="15"/>
+      <c r="E80" s="16"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="J80" s="2"/>
@@ -9426,9 +9436,9 @@
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="15"/>
+      <c r="C81" s="16"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="15"/>
+      <c r="E81" s="16"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="J81" s="2"/>
@@ -9437,9 +9447,9 @@
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="15"/>
+      <c r="C82" s="16"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="15"/>
+      <c r="E82" s="16"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="J82" s="2"/>
@@ -9448,9 +9458,9 @@
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="15"/>
+      <c r="C83" s="16"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="15"/>
+      <c r="E83" s="16"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="J83" s="2"/>
@@ -9459,9 +9469,9 @@
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="15"/>
+      <c r="C84" s="16"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="15"/>
+      <c r="E84" s="16"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="J84" s="2"/>
@@ -9470,9 +9480,9 @@
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="15"/>
+      <c r="C85" s="16"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="15"/>
+      <c r="E85" s="16"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="J85" s="2"/>
@@ -9481,9 +9491,9 @@
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
-      <c r="C86" s="15"/>
+      <c r="C86" s="16"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="15"/>
+      <c r="E86" s="16"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="J86" s="2"/>
@@ -9492,9 +9502,9 @@
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="15"/>
+      <c r="C87" s="16"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="15"/>
+      <c r="E87" s="16"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="J87" s="2"/>
@@ -9503,9 +9513,9 @@
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
-      <c r="C88" s="15"/>
+      <c r="C88" s="16"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="15"/>
+      <c r="E88" s="16"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="J88" s="2"/>
@@ -9514,9 +9524,9 @@
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="15"/>
+      <c r="C89" s="16"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="15"/>
+      <c r="E89" s="16"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="J89" s="2"/>
@@ -9525,9 +9535,9 @@
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="15"/>
+      <c r="C90" s="16"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="15"/>
+      <c r="E90" s="16"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="J90" s="2"/>
@@ -9536,9 +9546,9 @@
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="15"/>
+      <c r="C91" s="16"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="15"/>
+      <c r="E91" s="16"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="J91" s="2"/>
@@ -9547,9 +9557,9 @@
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="15"/>
+      <c r="C92" s="16"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="15"/>
+      <c r="E92" s="16"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="J92" s="2"/>
@@ -9558,9 +9568,9 @@
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="15"/>
+      <c r="C93" s="16"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="15"/>
+      <c r="E93" s="16"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="J93" s="2"/>
@@ -9569,9 +9579,9 @@
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="15"/>
+      <c r="C94" s="16"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="15"/>
+      <c r="E94" s="16"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="J94" s="2"/>
@@ -9580,9 +9590,9 @@
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="15"/>
+      <c r="C95" s="16"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="15"/>
+      <c r="E95" s="16"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="J95" s="2"/>
@@ -9591,9 +9601,9 @@
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="15"/>
+      <c r="C96" s="16"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="15"/>
+      <c r="E96" s="16"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="J96" s="2"/>
@@ -9602,9 +9612,9 @@
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="15"/>
+      <c r="C97" s="16"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="15"/>
+      <c r="E97" s="16"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="J97" s="2"/>
@@ -9613,9 +9623,9 @@
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="15"/>
+      <c r="C98" s="16"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="15"/>
+      <c r="E98" s="16"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="J98" s="2"/>
@@ -9624,9 +9634,9 @@
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="15"/>
+      <c r="C99" s="16"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="15"/>
+      <c r="E99" s="16"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="J99" s="2"/>
@@ -9635,9 +9645,9 @@
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="15"/>
+      <c r="C100" s="16"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="15"/>
+      <c r="E100" s="16"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="J100" s="2"/>
@@ -9646,9 +9656,9 @@
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="15"/>
+      <c r="C101" s="16"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="15"/>
+      <c r="E101" s="16"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="J101" s="2"/>
@@ -9657,9 +9667,9 @@
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="15"/>
+      <c r="C102" s="16"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="15"/>
+      <c r="E102" s="16"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="J102" s="2"/>
@@ -9668,9 +9678,9 @@
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="15"/>
+      <c r="C103" s="16"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="15"/>
+      <c r="E103" s="16"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="J103" s="2"/>
@@ -9679,9 +9689,9 @@
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="15"/>
+      <c r="C104" s="16"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="15"/>
+      <c r="E104" s="16"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="J104" s="2"/>
@@ -9690,9 +9700,9 @@
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
-      <c r="C105" s="15"/>
+      <c r="C105" s="16"/>
       <c r="D105" s="2"/>
-      <c r="E105" s="15"/>
+      <c r="E105" s="16"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="J105" s="2"/>
@@ -9701,9 +9711,9 @@
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="15"/>
+      <c r="C106" s="16"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="15"/>
+      <c r="E106" s="16"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="J106" s="2"/>
@@ -9712,9 +9722,9 @@
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
-      <c r="C107" s="15"/>
+      <c r="C107" s="16"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="15"/>
+      <c r="E107" s="16"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="J107" s="2"/>
@@ -9723,9 +9733,9 @@
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="15"/>
+      <c r="C108" s="16"/>
       <c r="D108" s="2"/>
-      <c r="E108" s="15"/>
+      <c r="E108" s="16"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="J108" s="2"/>
@@ -9734,9 +9744,9 @@
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="15"/>
+      <c r="C109" s="16"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="15"/>
+      <c r="E109" s="16"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="J109" s="2"/>
@@ -9745,9 +9755,9 @@
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
-      <c r="C110" s="15"/>
+      <c r="C110" s="16"/>
       <c r="D110" s="2"/>
-      <c r="E110" s="15"/>
+      <c r="E110" s="16"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="J110" s="2"/>
@@ -9756,9 +9766,9 @@
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="15"/>
+      <c r="C111" s="16"/>
       <c r="D111" s="2"/>
-      <c r="E111" s="15"/>
+      <c r="E111" s="16"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="J111" s="2"/>
@@ -9767,9 +9777,9 @@
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="15"/>
+      <c r="C112" s="16"/>
       <c r="D112" s="2"/>
-      <c r="E112" s="15"/>
+      <c r="E112" s="16"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="J112" s="2"/>
@@ -9778,9 +9788,9 @@
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
-      <c r="C113" s="15"/>
+      <c r="C113" s="16"/>
       <c r="D113" s="2"/>
-      <c r="E113" s="15"/>
+      <c r="E113" s="16"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="J113" s="2"/>
@@ -9789,9 +9799,9 @@
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
-      <c r="C114" s="15"/>
+      <c r="C114" s="16"/>
       <c r="D114" s="2"/>
-      <c r="E114" s="15"/>
+      <c r="E114" s="16"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="J114" s="2"/>
@@ -9800,9 +9810,9 @@
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
-      <c r="C115" s="15"/>
+      <c r="C115" s="16"/>
       <c r="D115" s="2"/>
-      <c r="E115" s="15"/>
+      <c r="E115" s="16"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="J115" s="2"/>
@@ -9811,9 +9821,9 @@
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
-      <c r="C116" s="15"/>
+      <c r="C116" s="16"/>
       <c r="D116" s="2"/>
-      <c r="E116" s="15"/>
+      <c r="E116" s="16"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="J116" s="2"/>
@@ -9822,9 +9832,9 @@
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="15"/>
+      <c r="C117" s="16"/>
       <c r="D117" s="2"/>
-      <c r="E117" s="15"/>
+      <c r="E117" s="16"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="J117" s="2"/>
@@ -9833,9 +9843,9 @@
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="15"/>
+      <c r="C118" s="16"/>
       <c r="D118" s="2"/>
-      <c r="E118" s="15"/>
+      <c r="E118" s="16"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="J118" s="2"/>
@@ -9844,9 +9854,9 @@
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
-      <c r="C119" s="15"/>
+      <c r="C119" s="16"/>
       <c r="D119" s="2"/>
-      <c r="E119" s="15"/>
+      <c r="E119" s="16"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="J119" s="2"/>
@@ -9855,9 +9865,9 @@
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
-      <c r="C120" s="15"/>
+      <c r="C120" s="16"/>
       <c r="D120" s="2"/>
-      <c r="E120" s="15"/>
+      <c r="E120" s="16"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="J120" s="2"/>
@@ -9866,9 +9876,9 @@
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
-      <c r="C121" s="15"/>
+      <c r="C121" s="16"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="15"/>
+      <c r="E121" s="16"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="J121" s="2"/>
@@ -9877,9 +9887,9 @@
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
-      <c r="C122" s="15"/>
+      <c r="C122" s="16"/>
       <c r="D122" s="2"/>
-      <c r="E122" s="15"/>
+      <c r="E122" s="16"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="J122" s="2"/>
@@ -9888,9 +9898,9 @@
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
-      <c r="C123" s="15"/>
+      <c r="C123" s="16"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="15"/>
+      <c r="E123" s="16"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="J123" s="2"/>
@@ -9899,9 +9909,9 @@
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
-      <c r="C124" s="15"/>
+      <c r="C124" s="16"/>
       <c r="D124" s="2"/>
-      <c r="E124" s="15"/>
+      <c r="E124" s="16"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="J124" s="2"/>
@@ -9910,9 +9920,9 @@
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="15"/>
+      <c r="C125" s="16"/>
       <c r="D125" s="2"/>
-      <c r="E125" s="15"/>
+      <c r="E125" s="16"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="J125" s="2"/>
@@ -9921,9 +9931,9 @@
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
-      <c r="C126" s="15"/>
+      <c r="C126" s="16"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="15"/>
+      <c r="E126" s="16"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="J126" s="2"/>
@@ -9932,9 +9942,9 @@
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
-      <c r="C127" s="15"/>
+      <c r="C127" s="16"/>
       <c r="D127" s="2"/>
-      <c r="E127" s="15"/>
+      <c r="E127" s="16"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="J127" s="2"/>
@@ -9943,9 +9953,9 @@
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="15"/>
+      <c r="C128" s="16"/>
       <c r="D128" s="2"/>
-      <c r="E128" s="15"/>
+      <c r="E128" s="16"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="J128" s="2"/>
@@ -9954,9 +9964,9 @@
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
-      <c r="C129" s="15"/>
+      <c r="C129" s="16"/>
       <c r="D129" s="2"/>
-      <c r="E129" s="15"/>
+      <c r="E129" s="16"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="J129" s="2"/>
@@ -9965,9 +9975,9 @@
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
-      <c r="C130" s="15"/>
+      <c r="C130" s="16"/>
       <c r="D130" s="2"/>
-      <c r="E130" s="15"/>
+      <c r="E130" s="16"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="J130" s="2"/>
@@ -9976,9 +9986,9 @@
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
-      <c r="C131" s="15"/>
+      <c r="C131" s="16"/>
       <c r="D131" s="2"/>
-      <c r="E131" s="15"/>
+      <c r="E131" s="16"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="J131" s="2"/>
@@ -9987,9 +9997,9 @@
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
-      <c r="C132" s="15"/>
+      <c r="C132" s="16"/>
       <c r="D132" s="2"/>
-      <c r="E132" s="15"/>
+      <c r="E132" s="16"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="J132" s="2"/>
@@ -9998,9 +10008,9 @@
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
-      <c r="C133" s="15"/>
+      <c r="C133" s="16"/>
       <c r="D133" s="2"/>
-      <c r="E133" s="15"/>
+      <c r="E133" s="16"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="J133" s="2"/>
@@ -10009,9 +10019,9 @@
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
-      <c r="C134" s="15"/>
+      <c r="C134" s="16"/>
       <c r="D134" s="2"/>
-      <c r="E134" s="15"/>
+      <c r="E134" s="16"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="J134" s="2"/>
@@ -10020,9 +10030,9 @@
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
-      <c r="C135" s="15"/>
+      <c r="C135" s="16"/>
       <c r="D135" s="2"/>
-      <c r="E135" s="15"/>
+      <c r="E135" s="16"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="J135" s="2"/>
@@ -10031,9 +10041,9 @@
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
-      <c r="C136" s="15"/>
+      <c r="C136" s="16"/>
       <c r="D136" s="2"/>
-      <c r="E136" s="15"/>
+      <c r="E136" s="16"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="J136" s="2"/>
@@ -10042,9 +10052,9 @@
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
-      <c r="C137" s="15"/>
+      <c r="C137" s="16"/>
       <c r="D137" s="2"/>
-      <c r="E137" s="15"/>
+      <c r="E137" s="16"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="J137" s="2"/>
@@ -10053,9 +10063,9 @@
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
-      <c r="C138" s="15"/>
+      <c r="C138" s="16"/>
       <c r="D138" s="2"/>
-      <c r="E138" s="15"/>
+      <c r="E138" s="16"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="J138" s="2"/>
@@ -10064,9 +10074,9 @@
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
-      <c r="C139" s="15"/>
+      <c r="C139" s="16"/>
       <c r="D139" s="2"/>
-      <c r="E139" s="15"/>
+      <c r="E139" s="16"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
       <c r="J139" s="2"/>
@@ -10075,9 +10085,9 @@
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
-      <c r="C140" s="15"/>
+      <c r="C140" s="16"/>
       <c r="D140" s="2"/>
-      <c r="E140" s="15"/>
+      <c r="E140" s="16"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="J140" s="2"/>
@@ -10086,9 +10096,9 @@
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
-      <c r="C141" s="15"/>
+      <c r="C141" s="16"/>
       <c r="D141" s="2"/>
-      <c r="E141" s="15"/>
+      <c r="E141" s="16"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="J141" s="2"/>
@@ -10097,9 +10107,9 @@
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
-      <c r="C142" s="15"/>
+      <c r="C142" s="16"/>
       <c r="D142" s="2"/>
-      <c r="E142" s="15"/>
+      <c r="E142" s="16"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="J142" s="2"/>
@@ -10108,9 +10118,9 @@
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
-      <c r="C143" s="15"/>
+      <c r="C143" s="16"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="15"/>
+      <c r="E143" s="16"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="J143" s="2"/>
@@ -10119,9 +10129,9 @@
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
-      <c r="C144" s="15"/>
+      <c r="C144" s="16"/>
       <c r="D144" s="2"/>
-      <c r="E144" s="15"/>
+      <c r="E144" s="16"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="J144" s="2"/>
@@ -10130,9 +10140,9 @@
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
-      <c r="C145" s="15"/>
+      <c r="C145" s="16"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="15"/>
+      <c r="E145" s="16"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="J145" s="2"/>
@@ -10141,9 +10151,9 @@
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
-      <c r="C146" s="15"/>
+      <c r="C146" s="16"/>
       <c r="D146" s="2"/>
-      <c r="E146" s="15"/>
+      <c r="E146" s="16"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="J146" s="2"/>
@@ -10152,9 +10162,9 @@
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
-      <c r="C147" s="15"/>
+      <c r="C147" s="16"/>
       <c r="D147" s="2"/>
-      <c r="E147" s="15"/>
+      <c r="E147" s="16"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
       <c r="J147" s="2"/>
@@ -10163,9 +10173,9 @@
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
-      <c r="C148" s="15"/>
+      <c r="C148" s="16"/>
       <c r="D148" s="2"/>
-      <c r="E148" s="15"/>
+      <c r="E148" s="16"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="J148" s="2"/>
@@ -10174,9 +10184,9 @@
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
-      <c r="C149" s="15"/>
+      <c r="C149" s="16"/>
       <c r="D149" s="2"/>
-      <c r="E149" s="15"/>
+      <c r="E149" s="16"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
       <c r="J149" s="2"/>
@@ -10185,9 +10195,9 @@
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
-      <c r="C150" s="15"/>
+      <c r="C150" s="16"/>
       <c r="D150" s="2"/>
-      <c r="E150" s="15"/>
+      <c r="E150" s="16"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
       <c r="J150" s="2"/>
@@ -10196,9 +10206,9 @@
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
-      <c r="C151" s="15"/>
+      <c r="C151" s="16"/>
       <c r="D151" s="2"/>
-      <c r="E151" s="15"/>
+      <c r="E151" s="16"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
       <c r="J151" s="2"/>
@@ -10207,9 +10217,9 @@
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
-      <c r="C152" s="15"/>
+      <c r="C152" s="16"/>
       <c r="D152" s="2"/>
-      <c r="E152" s="15"/>
+      <c r="E152" s="16"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
       <c r="J152" s="2"/>
@@ -10218,9 +10228,9 @@
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
-      <c r="C153" s="15"/>
+      <c r="C153" s="16"/>
       <c r="D153" s="2"/>
-      <c r="E153" s="15"/>
+      <c r="E153" s="16"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
       <c r="J153" s="2"/>
@@ -10229,9 +10239,9 @@
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
-      <c r="C154" s="15"/>
+      <c r="C154" s="16"/>
       <c r="D154" s="2"/>
-      <c r="E154" s="15"/>
+      <c r="E154" s="16"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
       <c r="J154" s="2"/>
@@ -10240,9 +10250,9 @@
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
-      <c r="C155" s="15"/>
+      <c r="C155" s="16"/>
       <c r="D155" s="2"/>
-      <c r="E155" s="15"/>
+      <c r="E155" s="16"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
       <c r="J155" s="2"/>
@@ -10251,9 +10261,9 @@
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
-      <c r="C156" s="15"/>
+      <c r="C156" s="16"/>
       <c r="D156" s="2"/>
-      <c r="E156" s="15"/>
+      <c r="E156" s="16"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
       <c r="J156" s="2"/>
@@ -10262,9 +10272,9 @@
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
-      <c r="C157" s="15"/>
+      <c r="C157" s="16"/>
       <c r="D157" s="2"/>
-      <c r="E157" s="15"/>
+      <c r="E157" s="16"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="J157" s="2"/>
@@ -10273,9 +10283,9 @@
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
-      <c r="C158" s="15"/>
+      <c r="C158" s="16"/>
       <c r="D158" s="2"/>
-      <c r="E158" s="15"/>
+      <c r="E158" s="16"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
       <c r="J158" s="2"/>
@@ -10284,9 +10294,9 @@
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
-      <c r="C159" s="15"/>
+      <c r="C159" s="16"/>
       <c r="D159" s="2"/>
-      <c r="E159" s="15"/>
+      <c r="E159" s="16"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
       <c r="J159" s="2"/>
@@ -10295,9 +10305,9 @@
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
-      <c r="C160" s="15"/>
+      <c r="C160" s="16"/>
       <c r="D160" s="2"/>
-      <c r="E160" s="15"/>
+      <c r="E160" s="16"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
       <c r="J160" s="2"/>
@@ -10306,9 +10316,9 @@
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
-      <c r="C161" s="15"/>
+      <c r="C161" s="16"/>
       <c r="D161" s="2"/>
-      <c r="E161" s="15"/>
+      <c r="E161" s="16"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
       <c r="J161" s="2"/>
@@ -10317,9 +10327,9 @@
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
-      <c r="C162" s="15"/>
+      <c r="C162" s="16"/>
       <c r="D162" s="2"/>
-      <c r="E162" s="15"/>
+      <c r="E162" s="16"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
       <c r="J162" s="2"/>
@@ -10328,9 +10338,9 @@
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
-      <c r="C163" s="15"/>
+      <c r="C163" s="16"/>
       <c r="D163" s="2"/>
-      <c r="E163" s="15"/>
+      <c r="E163" s="16"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
       <c r="J163" s="2"/>
@@ -10339,9 +10349,9 @@
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
-      <c r="C164" s="15"/>
+      <c r="C164" s="16"/>
       <c r="D164" s="2"/>
-      <c r="E164" s="15"/>
+      <c r="E164" s="16"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
       <c r="J164" s="2"/>
@@ -10350,9 +10360,9 @@
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
-      <c r="C165" s="15"/>
+      <c r="C165" s="16"/>
       <c r="D165" s="2"/>
-      <c r="E165" s="15"/>
+      <c r="E165" s="16"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
       <c r="J165" s="2"/>
@@ -10361,9 +10371,9 @@
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
-      <c r="C166" s="15"/>
+      <c r="C166" s="16"/>
       <c r="D166" s="2"/>
-      <c r="E166" s="15"/>
+      <c r="E166" s="16"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
       <c r="J166" s="2"/>
@@ -10372,9 +10382,9 @@
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
-      <c r="C167" s="15"/>
+      <c r="C167" s="16"/>
       <c r="D167" s="2"/>
-      <c r="E167" s="15"/>
+      <c r="E167" s="16"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
       <c r="J167" s="2"/>
@@ -10383,9 +10393,9 @@
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
-      <c r="C168" s="15"/>
+      <c r="C168" s="16"/>
       <c r="D168" s="2"/>
-      <c r="E168" s="15"/>
+      <c r="E168" s="16"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
       <c r="J168" s="2"/>
@@ -10394,9 +10404,9 @@
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
-      <c r="C169" s="15"/>
+      <c r="C169" s="16"/>
       <c r="D169" s="2"/>
-      <c r="E169" s="15"/>
+      <c r="E169" s="16"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
       <c r="J169" s="2"/>
@@ -10405,9 +10415,9 @@
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
-      <c r="C170" s="15"/>
+      <c r="C170" s="16"/>
       <c r="D170" s="2"/>
-      <c r="E170" s="15"/>
+      <c r="E170" s="16"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
       <c r="J170" s="2"/>
@@ -17754,7 +17764,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.3"/>
@@ -17838,103 +17848,103 @@
       <c r="AA2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="16"/>
+      <c r="A3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="17"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="M4" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="N4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="J5" s="21"/>
       <c r="K5" s="2" t="n">
         <v>200</v>
       </c>
@@ -17942,258 +17952,258 @@
         <v>200</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q5" s="2" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="E6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="J6" s="20"/>
+        <v>74</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="J6" s="21"/>
       <c r="K6" s="2" t="n">
         <v>212</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="E7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="J7" s="20"/>
+        <v>74</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="J7" s="21"/>
       <c r="K7" s="2" t="n">
         <v>197</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="E8" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>94</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="J8" s="20"/>
+        <v>74</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="J8" s="21"/>
       <c r="K8" s="2" t="n">
         <v>214</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="E9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>99</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="J9" s="20"/>
+        <v>74</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="J9" s="21"/>
       <c r="K9" s="2" t="n">
         <v>237</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="E10" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>104</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="J10" s="20"/>
+        <v>74</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="2" t="n">
         <v>262</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="O10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -18203,12 +18213,12 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -18218,12 +18228,12 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -18233,12 +18243,12 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -18248,12 +18258,12 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -18263,12 +18273,12 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -18278,12 +18288,12 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -18293,12 +18303,12 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="J18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -18308,12 +18318,12 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="H19" s="21"/>
+      <c r="J19" s="21"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -18323,12 +18333,12 @@
       <c r="Q19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="J20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="H20" s="21"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -18338,12 +18348,12 @@
       <c r="Q20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="H21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -18353,12 +18363,12 @@
       <c r="Q21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="19"/>
-      <c r="H22" s="20"/>
-      <c r="J22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -18368,12 +18378,12 @@
       <c r="Q22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="19"/>
-      <c r="H23" s="20"/>
-      <c r="J23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="H23" s="21"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -18383,12 +18393,12 @@
       <c r="Q23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="19"/>
-      <c r="H24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="H24" s="21"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -18398,12 +18408,12 @@
       <c r="Q24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="H25" s="21"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -18413,12 +18423,12 @@
       <c r="Q25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="J26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="H26" s="21"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -18428,12 +18438,12 @@
       <c r="Q26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="19"/>
-      <c r="H27" s="20"/>
-      <c r="J27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="H27" s="21"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -18443,12 +18453,12 @@
       <c r="Q27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="19"/>
-      <c r="H28" s="20"/>
-      <c r="J28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="H28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -18458,12 +18468,12 @@
       <c r="Q28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="19"/>
-      <c r="H29" s="20"/>
-      <c r="J29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="H29" s="21"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -18473,12 +18483,12 @@
       <c r="Q29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="19"/>
-      <c r="H30" s="20"/>
-      <c r="J30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="H30" s="21"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -18488,12 +18498,12 @@
       <c r="Q30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="19"/>
-      <c r="H31" s="20"/>
-      <c r="J31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="H31" s="21"/>
+      <c r="J31" s="21"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -18503,12 +18513,12 @@
       <c r="Q31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="19"/>
-      <c r="H32" s="20"/>
-      <c r="J32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="H32" s="21"/>
+      <c r="J32" s="21"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -18518,12 +18528,12 @@
       <c r="Q32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="19"/>
-      <c r="H33" s="20"/>
-      <c r="J33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="H33" s="21"/>
+      <c r="J33" s="21"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -18533,12 +18543,12 @@
       <c r="Q33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="19"/>
-      <c r="H34" s="20"/>
-      <c r="J34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="H34" s="21"/>
+      <c r="J34" s="21"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -18548,12 +18558,12 @@
       <c r="Q34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="19"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="19"/>
-      <c r="H35" s="20"/>
-      <c r="J35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="H35" s="21"/>
+      <c r="J35" s="21"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -18563,12 +18573,12 @@
       <c r="Q35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="19"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="19"/>
-      <c r="H36" s="20"/>
-      <c r="J36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="H36" s="21"/>
+      <c r="J36" s="21"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -18578,12 +18588,12 @@
       <c r="Q36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="19"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="19"/>
-      <c r="H37" s="20"/>
-      <c r="J37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="H37" s="21"/>
+      <c r="J37" s="21"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -18593,12 +18603,12 @@
       <c r="Q37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="19"/>
-      <c r="H38" s="20"/>
-      <c r="J38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="H38" s="21"/>
+      <c r="J38" s="21"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -18608,12 +18618,12 @@
       <c r="Q38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="19"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="19"/>
-      <c r="H39" s="20"/>
-      <c r="J39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="H39" s="21"/>
+      <c r="J39" s="21"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -18623,12 +18633,12 @@
       <c r="Q39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="19"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="19"/>
-      <c r="H40" s="20"/>
-      <c r="J40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="H40" s="21"/>
+      <c r="J40" s="21"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -18638,12 +18648,12 @@
       <c r="Q40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="19"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="19"/>
-      <c r="H41" s="20"/>
-      <c r="J41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="H41" s="21"/>
+      <c r="J41" s="21"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -18653,12 +18663,12 @@
       <c r="Q41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="19"/>
-      <c r="H42" s="20"/>
-      <c r="J42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="H42" s="21"/>
+      <c r="J42" s="21"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -18668,12 +18678,12 @@
       <c r="Q42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="19"/>
-      <c r="H43" s="20"/>
-      <c r="J43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="H43" s="21"/>
+      <c r="J43" s="21"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -18683,12 +18693,12 @@
       <c r="Q43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="19"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="19"/>
-      <c r="H44" s="20"/>
-      <c r="J44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="H44" s="21"/>
+      <c r="J44" s="21"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -18698,12 +18708,12 @@
       <c r="Q44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="19"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="19"/>
-      <c r="H45" s="20"/>
-      <c r="J45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="H45" s="21"/>
+      <c r="J45" s="21"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -18713,12 +18723,12 @@
       <c r="Q45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="19"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="19"/>
-      <c r="H46" s="20"/>
-      <c r="J46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="H46" s="21"/>
+      <c r="J46" s="21"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -18728,12 +18738,12 @@
       <c r="Q46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="19"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="19"/>
-      <c r="H47" s="20"/>
-      <c r="J47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="H47" s="21"/>
+      <c r="J47" s="21"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -18743,12 +18753,12 @@
       <c r="Q47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="19"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="19"/>
-      <c r="H48" s="20"/>
-      <c r="J48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="H48" s="21"/>
+      <c r="J48" s="21"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -18758,12 +18768,12 @@
       <c r="Q48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="19"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="19"/>
-      <c r="H49" s="20"/>
-      <c r="J49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="H49" s="21"/>
+      <c r="J49" s="21"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -18773,12 +18783,12 @@
       <c r="Q49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="19"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="19"/>
-      <c r="H50" s="20"/>
-      <c r="J50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="H50" s="21"/>
+      <c r="J50" s="21"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -18788,12 +18798,12 @@
       <c r="Q50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="19"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="19"/>
-      <c r="H51" s="20"/>
-      <c r="J51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="H51" s="21"/>
+      <c r="J51" s="21"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -18803,12 +18813,12 @@
       <c r="Q51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="19"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="19"/>
-      <c r="H52" s="20"/>
-      <c r="J52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="H52" s="21"/>
+      <c r="J52" s="21"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -18818,12 +18828,12 @@
       <c r="Q52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="19"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="19"/>
-      <c r="H53" s="20"/>
-      <c r="J53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="H53" s="21"/>
+      <c r="J53" s="21"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -18833,12 +18843,12 @@
       <c r="Q53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="19"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="19"/>
-      <c r="H54" s="20"/>
-      <c r="J54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="H54" s="21"/>
+      <c r="J54" s="21"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -18848,12 +18858,12 @@
       <c r="Q54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="19"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="19"/>
-      <c r="H55" s="20"/>
-      <c r="J55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="H55" s="21"/>
+      <c r="J55" s="21"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -18863,12 +18873,12 @@
       <c r="Q55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="19"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="19"/>
-      <c r="H56" s="20"/>
-      <c r="J56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="H56" s="21"/>
+      <c r="J56" s="21"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -18878,12 +18888,12 @@
       <c r="Q56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="19"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="19"/>
-      <c r="H57" s="20"/>
-      <c r="J57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="H57" s="21"/>
+      <c r="J57" s="21"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -18893,12 +18903,12 @@
       <c r="Q57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="19"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="19"/>
-      <c r="H58" s="20"/>
-      <c r="J58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="H58" s="21"/>
+      <c r="J58" s="21"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -18908,12 +18918,12 @@
       <c r="Q58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="19"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="19"/>
-      <c r="H59" s="20"/>
-      <c r="J59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="H59" s="21"/>
+      <c r="J59" s="21"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -18923,12 +18933,12 @@
       <c r="Q59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="19"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="19"/>
-      <c r="H60" s="20"/>
-      <c r="J60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="H60" s="21"/>
+      <c r="J60" s="21"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -18938,12 +18948,12 @@
       <c r="Q60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="19"/>
+      <c r="A61" s="20"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="19"/>
-      <c r="H61" s="20"/>
-      <c r="J61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="H61" s="21"/>
+      <c r="J61" s="21"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -18953,12 +18963,12 @@
       <c r="Q61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="19"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="19"/>
-      <c r="H62" s="20"/>
-      <c r="J62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="H62" s="21"/>
+      <c r="J62" s="21"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -18968,12 +18978,12 @@
       <c r="Q62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="19"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="19"/>
-      <c r="H63" s="20"/>
-      <c r="J63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="H63" s="21"/>
+      <c r="J63" s="21"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -18983,12 +18993,12 @@
       <c r="Q63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="19"/>
+      <c r="A64" s="20"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="19"/>
-      <c r="H64" s="20"/>
-      <c r="J64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="H64" s="21"/>
+      <c r="J64" s="21"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -18998,12 +19008,12 @@
       <c r="Q64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="19"/>
+      <c r="A65" s="20"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="19"/>
-      <c r="H65" s="20"/>
-      <c r="J65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="H65" s="21"/>
+      <c r="J65" s="21"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -19013,12 +19023,12 @@
       <c r="Q65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="19"/>
+      <c r="A66" s="20"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="19"/>
-      <c r="H66" s="20"/>
-      <c r="J66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="H66" s="21"/>
+      <c r="J66" s="21"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -19028,12 +19038,12 @@
       <c r="Q66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="19"/>
+      <c r="A67" s="20"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="19"/>
-      <c r="H67" s="20"/>
-      <c r="J67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="H67" s="21"/>
+      <c r="J67" s="21"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -19043,12 +19053,12 @@
       <c r="Q67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="19"/>
+      <c r="A68" s="20"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="19"/>
-      <c r="H68" s="20"/>
-      <c r="J68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="H68" s="21"/>
+      <c r="J68" s="21"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -19058,12 +19068,12 @@
       <c r="Q68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="19"/>
+      <c r="A69" s="20"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="19"/>
-      <c r="H69" s="20"/>
-      <c r="J69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="H69" s="21"/>
+      <c r="J69" s="21"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -19073,12 +19083,12 @@
       <c r="Q69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="19"/>
+      <c r="A70" s="20"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="19"/>
-      <c r="H70" s="20"/>
-      <c r="J70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="H70" s="21"/>
+      <c r="J70" s="21"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -19088,12 +19098,12 @@
       <c r="Q70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="19"/>
+      <c r="A71" s="20"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="19"/>
-      <c r="H71" s="20"/>
-      <c r="J71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="H71" s="21"/>
+      <c r="J71" s="21"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
@@ -19103,12 +19113,12 @@
       <c r="Q71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="19"/>
+      <c r="A72" s="20"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="19"/>
-      <c r="H72" s="20"/>
-      <c r="J72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="H72" s="21"/>
+      <c r="J72" s="21"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -19118,12 +19128,12 @@
       <c r="Q72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="19"/>
+      <c r="A73" s="20"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="19"/>
-      <c r="H73" s="20"/>
-      <c r="J73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="H73" s="21"/>
+      <c r="J73" s="21"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
@@ -19133,12 +19143,12 @@
       <c r="Q73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="19"/>
+      <c r="A74" s="20"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="19"/>
-      <c r="H74" s="20"/>
-      <c r="J74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="H74" s="21"/>
+      <c r="J74" s="21"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -19148,12 +19158,12 @@
       <c r="Q74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="19"/>
+      <c r="A75" s="20"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="19"/>
-      <c r="H75" s="20"/>
-      <c r="J75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="H75" s="21"/>
+      <c r="J75" s="21"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -19163,12 +19173,12 @@
       <c r="Q75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="19"/>
+      <c r="A76" s="20"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="19"/>
-      <c r="H76" s="20"/>
-      <c r="J76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="H76" s="21"/>
+      <c r="J76" s="21"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -19178,12 +19188,12 @@
       <c r="Q76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="19"/>
+      <c r="A77" s="20"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="19"/>
-      <c r="H77" s="20"/>
-      <c r="J77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="H77" s="21"/>
+      <c r="J77" s="21"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -19193,12 +19203,12 @@
       <c r="Q77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="19"/>
+      <c r="A78" s="20"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="19"/>
-      <c r="H78" s="20"/>
-      <c r="J78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="H78" s="21"/>
+      <c r="J78" s="21"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -19208,12 +19218,12 @@
       <c r="Q78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="19"/>
+      <c r="A79" s="20"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="19"/>
-      <c r="H79" s="20"/>
-      <c r="J79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="H79" s="21"/>
+      <c r="J79" s="21"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
@@ -19223,12 +19233,12 @@
       <c r="Q79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="19"/>
+      <c r="A80" s="20"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="19"/>
-      <c r="H80" s="20"/>
-      <c r="J80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="H80" s="21"/>
+      <c r="J80" s="21"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
@@ -19238,12 +19248,12 @@
       <c r="Q80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="19"/>
+      <c r="A81" s="20"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="19"/>
-      <c r="H81" s="20"/>
-      <c r="J81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="H81" s="21"/>
+      <c r="J81" s="21"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
@@ -19253,12 +19263,12 @@
       <c r="Q81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="19"/>
+      <c r="A82" s="20"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="19"/>
-      <c r="H82" s="20"/>
-      <c r="J82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="H82" s="21"/>
+      <c r="J82" s="21"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
@@ -19268,12 +19278,12 @@
       <c r="Q82" s="2"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="19"/>
+      <c r="A83" s="20"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="19"/>
-      <c r="H83" s="20"/>
-      <c r="J83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="H83" s="21"/>
+      <c r="J83" s="21"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
@@ -19283,12 +19293,12 @@
       <c r="Q83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="19"/>
+      <c r="A84" s="20"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="19"/>
-      <c r="H84" s="20"/>
-      <c r="J84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="H84" s="21"/>
+      <c r="J84" s="21"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
@@ -19298,12 +19308,12 @@
       <c r="Q84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="19"/>
+      <c r="A85" s="20"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="19"/>
-      <c r="H85" s="20"/>
-      <c r="J85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="H85" s="21"/>
+      <c r="J85" s="21"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -19313,12 +19323,12 @@
       <c r="Q85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="19"/>
+      <c r="A86" s="20"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="19"/>
-      <c r="H86" s="20"/>
-      <c r="J86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="H86" s="21"/>
+      <c r="J86" s="21"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
@@ -19328,12 +19338,12 @@
       <c r="Q86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="19"/>
+      <c r="A87" s="20"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="19"/>
-      <c r="H87" s="20"/>
-      <c r="J87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="H87" s="21"/>
+      <c r="J87" s="21"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -19343,12 +19353,12 @@
       <c r="Q87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="19"/>
+      <c r="A88" s="20"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="19"/>
-      <c r="H88" s="20"/>
-      <c r="J88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="H88" s="21"/>
+      <c r="J88" s="21"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -19358,12 +19368,12 @@
       <c r="Q88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="19"/>
+      <c r="A89" s="20"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="19"/>
-      <c r="H89" s="20"/>
-      <c r="J89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="H89" s="21"/>
+      <c r="J89" s="21"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -19373,12 +19383,12 @@
       <c r="Q89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="19"/>
+      <c r="A90" s="20"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="19"/>
-      <c r="H90" s="20"/>
-      <c r="J90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="H90" s="21"/>
+      <c r="J90" s="21"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -19388,12 +19398,12 @@
       <c r="Q90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="19"/>
+      <c r="A91" s="20"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="19"/>
-      <c r="H91" s="20"/>
-      <c r="J91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="H91" s="21"/>
+      <c r="J91" s="21"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -19403,12 +19413,12 @@
       <c r="Q91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="19"/>
+      <c r="A92" s="20"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="19"/>
-      <c r="H92" s="20"/>
-      <c r="J92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="H92" s="21"/>
+      <c r="J92" s="21"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
@@ -19418,12 +19428,12 @@
       <c r="Q92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="19"/>
+      <c r="A93" s="20"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="19"/>
-      <c r="H93" s="20"/>
-      <c r="J93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="H93" s="21"/>
+      <c r="J93" s="21"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
@@ -19433,12 +19443,12 @@
       <c r="Q93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="19"/>
+      <c r="A94" s="20"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="19"/>
-      <c r="H94" s="20"/>
-      <c r="J94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="H94" s="21"/>
+      <c r="J94" s="21"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
@@ -19448,12 +19458,12 @@
       <c r="Q94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="19"/>
+      <c r="A95" s="20"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="19"/>
-      <c r="H95" s="20"/>
-      <c r="J95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="H95" s="21"/>
+      <c r="J95" s="21"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
@@ -19463,12 +19473,12 @@
       <c r="Q95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="19"/>
+      <c r="A96" s="20"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="19"/>
-      <c r="H96" s="20"/>
-      <c r="J96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="H96" s="21"/>
+      <c r="J96" s="21"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
@@ -19478,12 +19488,12 @@
       <c r="Q96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="19"/>
+      <c r="A97" s="20"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="19"/>
-      <c r="H97" s="20"/>
-      <c r="J97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="H97" s="21"/>
+      <c r="J97" s="21"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
@@ -19493,12 +19503,12 @@
       <c r="Q97" s="2"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="19"/>
+      <c r="A98" s="20"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="19"/>
-      <c r="H98" s="20"/>
-      <c r="J98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="H98" s="21"/>
+      <c r="J98" s="21"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
@@ -19508,12 +19518,12 @@
       <c r="Q98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="19"/>
+      <c r="A99" s="20"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="19"/>
-      <c r="H99" s="20"/>
-      <c r="J99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="H99" s="21"/>
+      <c r="J99" s="21"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
@@ -19523,12 +19533,12 @@
       <c r="Q99" s="2"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="19"/>
+      <c r="A100" s="20"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="19"/>
-      <c r="H100" s="20"/>
-      <c r="J100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="H100" s="21"/>
+      <c r="J100" s="21"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
@@ -19538,12 +19548,12 @@
       <c r="Q100" s="2"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="19"/>
+      <c r="A101" s="20"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="19"/>
-      <c r="H101" s="20"/>
-      <c r="J101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="H101" s="21"/>
+      <c r="J101" s="21"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
@@ -19553,12 +19563,12 @@
       <c r="Q101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="19"/>
+      <c r="A102" s="20"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="19"/>
-      <c r="H102" s="20"/>
-      <c r="J102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="H102" s="21"/>
+      <c r="J102" s="21"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
@@ -19568,12 +19578,12 @@
       <c r="Q102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="19"/>
+      <c r="A103" s="20"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="19"/>
-      <c r="H103" s="20"/>
-      <c r="J103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="H103" s="21"/>
+      <c r="J103" s="21"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
@@ -19583,12 +19593,12 @@
       <c r="Q103" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="19"/>
+      <c r="A104" s="20"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="19"/>
-      <c r="H104" s="20"/>
-      <c r="J104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="H104" s="21"/>
+      <c r="J104" s="21"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
@@ -19598,12 +19608,12 @@
       <c r="Q104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="19"/>
+      <c r="A105" s="20"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="19"/>
-      <c r="H105" s="20"/>
-      <c r="J105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="H105" s="21"/>
+      <c r="J105" s="21"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -19613,12 +19623,12 @@
       <c r="Q105" s="2"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="19"/>
+      <c r="A106" s="20"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="19"/>
-      <c r="H106" s="20"/>
-      <c r="J106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="H106" s="21"/>
+      <c r="J106" s="21"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
@@ -19628,12 +19638,12 @@
       <c r="Q106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="19"/>
+      <c r="A107" s="20"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
-      <c r="D107" s="19"/>
-      <c r="H107" s="20"/>
-      <c r="J107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="H107" s="21"/>
+      <c r="J107" s="21"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
@@ -19643,12 +19653,12 @@
       <c r="Q107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="19"/>
+      <c r="A108" s="20"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-      <c r="D108" s="19"/>
-      <c r="H108" s="20"/>
-      <c r="J108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="H108" s="21"/>
+      <c r="J108" s="21"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
@@ -19658,12 +19668,12 @@
       <c r="Q108" s="2"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="19"/>
+      <c r="A109" s="20"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="19"/>
-      <c r="H109" s="20"/>
-      <c r="J109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="H109" s="21"/>
+      <c r="J109" s="21"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
@@ -19673,12 +19683,12 @@
       <c r="Q109" s="2"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="19"/>
+      <c r="A110" s="20"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
-      <c r="D110" s="19"/>
-      <c r="H110" s="20"/>
-      <c r="J110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="H110" s="21"/>
+      <c r="J110" s="21"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
@@ -19688,12 +19698,12 @@
       <c r="Q110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="19"/>
+      <c r="A111" s="20"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
-      <c r="D111" s="19"/>
-      <c r="H111" s="20"/>
-      <c r="J111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="H111" s="21"/>
+      <c r="J111" s="21"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
@@ -19703,12 +19713,12 @@
       <c r="Q111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="19"/>
+      <c r="A112" s="20"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="19"/>
-      <c r="H112" s="20"/>
-      <c r="J112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="H112" s="21"/>
+      <c r="J112" s="21"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
@@ -19718,12 +19728,12 @@
       <c r="Q112" s="2"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="19"/>
+      <c r="A113" s="20"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
-      <c r="D113" s="19"/>
-      <c r="H113" s="20"/>
-      <c r="J113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="H113" s="21"/>
+      <c r="J113" s="21"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
@@ -19733,12 +19743,12 @@
       <c r="Q113" s="2"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="19"/>
+      <c r="A114" s="20"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="19"/>
-      <c r="H114" s="20"/>
-      <c r="J114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="H114" s="21"/>
+      <c r="J114" s="21"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
@@ -19748,12 +19758,12 @@
       <c r="Q114" s="2"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="19"/>
+      <c r="A115" s="20"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
-      <c r="D115" s="19"/>
-      <c r="H115" s="20"/>
-      <c r="J115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="H115" s="21"/>
+      <c r="J115" s="21"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
@@ -19763,12 +19773,12 @@
       <c r="Q115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="19"/>
+      <c r="A116" s="20"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
-      <c r="D116" s="19"/>
-      <c r="H116" s="20"/>
-      <c r="J116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="H116" s="21"/>
+      <c r="J116" s="21"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
@@ -19778,12 +19788,12 @@
       <c r="Q116" s="2"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="19"/>
+      <c r="A117" s="20"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
-      <c r="D117" s="19"/>
-      <c r="H117" s="20"/>
-      <c r="J117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="H117" s="21"/>
+      <c r="J117" s="21"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
@@ -19793,12 +19803,12 @@
       <c r="Q117" s="2"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="19"/>
+      <c r="A118" s="20"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="19"/>
-      <c r="H118" s="20"/>
-      <c r="J118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="H118" s="21"/>
+      <c r="J118" s="21"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
@@ -19808,12 +19818,12 @@
       <c r="Q118" s="2"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="19"/>
+      <c r="A119" s="20"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="19"/>
-      <c r="H119" s="20"/>
-      <c r="J119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="H119" s="21"/>
+      <c r="J119" s="21"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
@@ -19823,12 +19833,12 @@
       <c r="Q119" s="2"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="19"/>
+      <c r="A120" s="20"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
-      <c r="D120" s="19"/>
-      <c r="H120" s="20"/>
-      <c r="J120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="H120" s="21"/>
+      <c r="J120" s="21"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
@@ -19838,12 +19848,12 @@
       <c r="Q120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="19"/>
+      <c r="A121" s="20"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
-      <c r="D121" s="19"/>
-      <c r="H121" s="20"/>
-      <c r="J121" s="20"/>
+      <c r="D121" s="20"/>
+      <c r="H121" s="21"/>
+      <c r="J121" s="21"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
@@ -19853,12 +19863,12 @@
       <c r="Q121" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="19"/>
+      <c r="A122" s="20"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
-      <c r="D122" s="19"/>
-      <c r="H122" s="20"/>
-      <c r="J122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="H122" s="21"/>
+      <c r="J122" s="21"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
@@ -19868,12 +19878,12 @@
       <c r="Q122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="19"/>
+      <c r="A123" s="20"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
-      <c r="D123" s="19"/>
-      <c r="H123" s="20"/>
-      <c r="J123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="H123" s="21"/>
+      <c r="J123" s="21"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
@@ -19883,12 +19893,12 @@
       <c r="Q123" s="2"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="19"/>
+      <c r="A124" s="20"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
-      <c r="D124" s="19"/>
-      <c r="H124" s="20"/>
-      <c r="J124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="H124" s="21"/>
+      <c r="J124" s="21"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
@@ -19898,12 +19908,12 @@
       <c r="Q124" s="2"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="19"/>
+      <c r="A125" s="20"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
-      <c r="D125" s="19"/>
-      <c r="H125" s="20"/>
-      <c r="J125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="H125" s="21"/>
+      <c r="J125" s="21"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
@@ -19913,12 +19923,12 @@
       <c r="Q125" s="2"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="19"/>
+      <c r="A126" s="20"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
-      <c r="D126" s="19"/>
-      <c r="H126" s="20"/>
-      <c r="J126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="H126" s="21"/>
+      <c r="J126" s="21"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
@@ -19928,12 +19938,12 @@
       <c r="Q126" s="2"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="19"/>
+      <c r="A127" s="20"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
-      <c r="D127" s="19"/>
-      <c r="H127" s="20"/>
-      <c r="J127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="H127" s="21"/>
+      <c r="J127" s="21"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
@@ -19943,12 +19953,12 @@
       <c r="Q127" s="2"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="19"/>
+      <c r="A128" s="20"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
-      <c r="D128" s="19"/>
-      <c r="H128" s="20"/>
-      <c r="J128" s="20"/>
+      <c r="D128" s="20"/>
+      <c r="H128" s="21"/>
+      <c r="J128" s="21"/>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
@@ -19958,12 +19968,12 @@
       <c r="Q128" s="2"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="19"/>
+      <c r="A129" s="20"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
-      <c r="D129" s="19"/>
-      <c r="H129" s="20"/>
-      <c r="J129" s="20"/>
+      <c r="D129" s="20"/>
+      <c r="H129" s="21"/>
+      <c r="J129" s="21"/>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
@@ -19973,12 +19983,12 @@
       <c r="Q129" s="2"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="19"/>
+      <c r="A130" s="20"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
-      <c r="D130" s="19"/>
-      <c r="H130" s="20"/>
-      <c r="J130" s="20"/>
+      <c r="D130" s="20"/>
+      <c r="H130" s="21"/>
+      <c r="J130" s="21"/>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
@@ -19988,12 +19998,12 @@
       <c r="Q130" s="2"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="19"/>
+      <c r="A131" s="20"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
-      <c r="D131" s="19"/>
-      <c r="H131" s="20"/>
-      <c r="J131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="H131" s="21"/>
+      <c r="J131" s="21"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
@@ -20003,12 +20013,12 @@
       <c r="Q131" s="2"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="19"/>
+      <c r="A132" s="20"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
-      <c r="D132" s="19"/>
-      <c r="H132" s="20"/>
-      <c r="J132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="H132" s="21"/>
+      <c r="J132" s="21"/>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
@@ -20018,12 +20028,12 @@
       <c r="Q132" s="2"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="19"/>
+      <c r="A133" s="20"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
-      <c r="D133" s="19"/>
-      <c r="H133" s="20"/>
-      <c r="J133" s="20"/>
+      <c r="D133" s="20"/>
+      <c r="H133" s="21"/>
+      <c r="J133" s="21"/>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
@@ -20033,12 +20043,12 @@
       <c r="Q133" s="2"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="19"/>
+      <c r="A134" s="20"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
-      <c r="D134" s="19"/>
-      <c r="H134" s="20"/>
-      <c r="J134" s="20"/>
+      <c r="D134" s="20"/>
+      <c r="H134" s="21"/>
+      <c r="J134" s="21"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
@@ -20048,12 +20058,12 @@
       <c r="Q134" s="2"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="19"/>
+      <c r="A135" s="20"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
-      <c r="D135" s="19"/>
-      <c r="H135" s="20"/>
-      <c r="J135" s="20"/>
+      <c r="D135" s="20"/>
+      <c r="H135" s="21"/>
+      <c r="J135" s="21"/>
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
@@ -20063,12 +20073,12 @@
       <c r="Q135" s="2"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="19"/>
+      <c r="A136" s="20"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
-      <c r="D136" s="19"/>
-      <c r="H136" s="20"/>
-      <c r="J136" s="20"/>
+      <c r="D136" s="20"/>
+      <c r="H136" s="21"/>
+      <c r="J136" s="21"/>
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
@@ -20078,12 +20088,12 @@
       <c r="Q136" s="2"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="19"/>
+      <c r="A137" s="20"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="19"/>
-      <c r="H137" s="20"/>
-      <c r="J137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="H137" s="21"/>
+      <c r="J137" s="21"/>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
@@ -20093,12 +20103,12 @@
       <c r="Q137" s="2"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="19"/>
+      <c r="A138" s="20"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
-      <c r="D138" s="19"/>
-      <c r="H138" s="20"/>
-      <c r="J138" s="20"/>
+      <c r="D138" s="20"/>
+      <c r="H138" s="21"/>
+      <c r="J138" s="21"/>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
@@ -20108,12 +20118,12 @@
       <c r="Q138" s="2"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="19"/>
+      <c r="A139" s="20"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="19"/>
-      <c r="H139" s="20"/>
-      <c r="J139" s="20"/>
+      <c r="D139" s="20"/>
+      <c r="H139" s="21"/>
+      <c r="J139" s="21"/>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
@@ -20123,12 +20133,12 @@
       <c r="Q139" s="2"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="19"/>
+      <c r="A140" s="20"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="19"/>
-      <c r="H140" s="20"/>
-      <c r="J140" s="20"/>
+      <c r="D140" s="20"/>
+      <c r="H140" s="21"/>
+      <c r="J140" s="21"/>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
@@ -20138,12 +20148,12 @@
       <c r="Q140" s="2"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="19"/>
+      <c r="A141" s="20"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
-      <c r="D141" s="19"/>
-      <c r="H141" s="20"/>
-      <c r="J141" s="20"/>
+      <c r="D141" s="20"/>
+      <c r="H141" s="21"/>
+      <c r="J141" s="21"/>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
@@ -20153,12 +20163,12 @@
       <c r="Q141" s="2"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="19"/>
+      <c r="A142" s="20"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
-      <c r="D142" s="19"/>
-      <c r="H142" s="20"/>
-      <c r="J142" s="20"/>
+      <c r="D142" s="20"/>
+      <c r="H142" s="21"/>
+      <c r="J142" s="21"/>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
@@ -20168,12 +20178,12 @@
       <c r="Q142" s="2"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="19"/>
+      <c r="A143" s="20"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="19"/>
-      <c r="H143" s="20"/>
-      <c r="J143" s="20"/>
+      <c r="D143" s="20"/>
+      <c r="H143" s="21"/>
+      <c r="J143" s="21"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
@@ -20183,12 +20193,12 @@
       <c r="Q143" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="19"/>
+      <c r="A144" s="20"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="19"/>
-      <c r="H144" s="20"/>
-      <c r="J144" s="20"/>
+      <c r="D144" s="20"/>
+      <c r="H144" s="21"/>
+      <c r="J144" s="21"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
@@ -20198,12 +20208,12 @@
       <c r="Q144" s="2"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="19"/>
+      <c r="A145" s="20"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="19"/>
-      <c r="H145" s="20"/>
-      <c r="J145" s="20"/>
+      <c r="D145" s="20"/>
+      <c r="H145" s="21"/>
+      <c r="J145" s="21"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
@@ -20213,12 +20223,12 @@
       <c r="Q145" s="2"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="19"/>
+      <c r="A146" s="20"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="19"/>
-      <c r="H146" s="20"/>
-      <c r="J146" s="20"/>
+      <c r="D146" s="20"/>
+      <c r="H146" s="21"/>
+      <c r="J146" s="21"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
@@ -20228,12 +20238,12 @@
       <c r="Q146" s="2"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="19"/>
+      <c r="A147" s="20"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="19"/>
-      <c r="H147" s="20"/>
-      <c r="J147" s="20"/>
+      <c r="D147" s="20"/>
+      <c r="H147" s="21"/>
+      <c r="J147" s="21"/>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
@@ -20243,12 +20253,12 @@
       <c r="Q147" s="2"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="19"/>
+      <c r="A148" s="20"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
-      <c r="D148" s="19"/>
-      <c r="H148" s="20"/>
-      <c r="J148" s="20"/>
+      <c r="D148" s="20"/>
+      <c r="H148" s="21"/>
+      <c r="J148" s="21"/>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
@@ -20258,12 +20268,12 @@
       <c r="Q148" s="2"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="19"/>
+      <c r="A149" s="20"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
-      <c r="D149" s="19"/>
-      <c r="H149" s="20"/>
-      <c r="J149" s="20"/>
+      <c r="D149" s="20"/>
+      <c r="H149" s="21"/>
+      <c r="J149" s="21"/>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
@@ -20273,12 +20283,12 @@
       <c r="Q149" s="2"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="19"/>
+      <c r="A150" s="20"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="19"/>
-      <c r="H150" s="20"/>
-      <c r="J150" s="20"/>
+      <c r="D150" s="20"/>
+      <c r="H150" s="21"/>
+      <c r="J150" s="21"/>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
@@ -20288,12 +20298,12 @@
       <c r="Q150" s="2"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="19"/>
+      <c r="A151" s="20"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="19"/>
-      <c r="H151" s="20"/>
-      <c r="J151" s="20"/>
+      <c r="D151" s="20"/>
+      <c r="H151" s="21"/>
+      <c r="J151" s="21"/>
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
@@ -20303,12 +20313,12 @@
       <c r="Q151" s="2"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="19"/>
+      <c r="A152" s="20"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
-      <c r="D152" s="19"/>
-      <c r="H152" s="20"/>
-      <c r="J152" s="20"/>
+      <c r="D152" s="20"/>
+      <c r="H152" s="21"/>
+      <c r="J152" s="21"/>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
@@ -20318,12 +20328,12 @@
       <c r="Q152" s="2"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="19"/>
+      <c r="A153" s="20"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
-      <c r="D153" s="19"/>
-      <c r="H153" s="20"/>
-      <c r="J153" s="20"/>
+      <c r="D153" s="20"/>
+      <c r="H153" s="21"/>
+      <c r="J153" s="21"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
@@ -20333,12 +20343,12 @@
       <c r="Q153" s="2"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="19"/>
+      <c r="A154" s="20"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
-      <c r="D154" s="19"/>
-      <c r="H154" s="20"/>
-      <c r="J154" s="20"/>
+      <c r="D154" s="20"/>
+      <c r="H154" s="21"/>
+      <c r="J154" s="21"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
@@ -20348,12 +20358,12 @@
       <c r="Q154" s="2"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="19"/>
+      <c r="A155" s="20"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
-      <c r="D155" s="19"/>
-      <c r="H155" s="20"/>
-      <c r="J155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="H155" s="21"/>
+      <c r="J155" s="21"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
@@ -20363,12 +20373,12 @@
       <c r="Q155" s="2"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="19"/>
+      <c r="A156" s="20"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
-      <c r="D156" s="19"/>
-      <c r="H156" s="20"/>
-      <c r="J156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="H156" s="21"/>
+      <c r="J156" s="21"/>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
@@ -20378,12 +20388,12 @@
       <c r="Q156" s="2"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="19"/>
+      <c r="A157" s="20"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
-      <c r="D157" s="19"/>
-      <c r="H157" s="20"/>
-      <c r="J157" s="20"/>
+      <c r="D157" s="20"/>
+      <c r="H157" s="21"/>
+      <c r="J157" s="21"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
@@ -20393,12 +20403,12 @@
       <c r="Q157" s="2"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="19"/>
+      <c r="A158" s="20"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
-      <c r="D158" s="19"/>
-      <c r="H158" s="20"/>
-      <c r="J158" s="20"/>
+      <c r="D158" s="20"/>
+      <c r="H158" s="21"/>
+      <c r="J158" s="21"/>
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
@@ -20408,12 +20418,12 @@
       <c r="Q158" s="2"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="19"/>
+      <c r="A159" s="20"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
-      <c r="D159" s="19"/>
-      <c r="H159" s="20"/>
-      <c r="J159" s="20"/>
+      <c r="D159" s="20"/>
+      <c r="H159" s="21"/>
+      <c r="J159" s="21"/>
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
@@ -20423,12 +20433,12 @@
       <c r="Q159" s="2"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="19"/>
+      <c r="A160" s="20"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
-      <c r="D160" s="19"/>
-      <c r="H160" s="20"/>
-      <c r="J160" s="20"/>
+      <c r="D160" s="20"/>
+      <c r="H160" s="21"/>
+      <c r="J160" s="21"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
@@ -20438,12 +20448,12 @@
       <c r="Q160" s="2"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="19"/>
+      <c r="A161" s="20"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
-      <c r="D161" s="19"/>
-      <c r="H161" s="20"/>
-      <c r="J161" s="20"/>
+      <c r="D161" s="20"/>
+      <c r="H161" s="21"/>
+      <c r="J161" s="21"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
@@ -20453,12 +20463,12 @@
       <c r="Q161" s="2"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="19"/>
+      <c r="A162" s="20"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
-      <c r="D162" s="19"/>
-      <c r="H162" s="20"/>
-      <c r="J162" s="20"/>
+      <c r="D162" s="20"/>
+      <c r="H162" s="21"/>
+      <c r="J162" s="21"/>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
@@ -20468,12 +20478,12 @@
       <c r="Q162" s="2"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="19"/>
+      <c r="A163" s="20"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
-      <c r="D163" s="19"/>
-      <c r="H163" s="20"/>
-      <c r="J163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="H163" s="21"/>
+      <c r="J163" s="21"/>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
@@ -20483,12 +20493,12 @@
       <c r="Q163" s="2"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="19"/>
+      <c r="A164" s="20"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
-      <c r="D164" s="19"/>
-      <c r="H164" s="20"/>
-      <c r="J164" s="20"/>
+      <c r="D164" s="20"/>
+      <c r="H164" s="21"/>
+      <c r="J164" s="21"/>
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
@@ -20498,12 +20508,12 @@
       <c r="Q164" s="2"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="19"/>
+      <c r="A165" s="20"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
-      <c r="D165" s="19"/>
-      <c r="H165" s="20"/>
-      <c r="J165" s="20"/>
+      <c r="D165" s="20"/>
+      <c r="H165" s="21"/>
+      <c r="J165" s="21"/>
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
@@ -20513,12 +20523,12 @@
       <c r="Q165" s="2"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="19"/>
+      <c r="A166" s="20"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
-      <c r="D166" s="19"/>
-      <c r="H166" s="20"/>
-      <c r="J166" s="20"/>
+      <c r="D166" s="20"/>
+      <c r="H166" s="21"/>
+      <c r="J166" s="21"/>
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
@@ -20528,12 +20538,12 @@
       <c r="Q166" s="2"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="19"/>
+      <c r="A167" s="20"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
-      <c r="D167" s="19"/>
-      <c r="H167" s="20"/>
-      <c r="J167" s="20"/>
+      <c r="D167" s="20"/>
+      <c r="H167" s="21"/>
+      <c r="J167" s="21"/>
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
@@ -20543,12 +20553,12 @@
       <c r="Q167" s="2"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="19"/>
+      <c r="A168" s="20"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
-      <c r="D168" s="19"/>
-      <c r="H168" s="20"/>
-      <c r="J168" s="20"/>
+      <c r="D168" s="20"/>
+      <c r="H168" s="21"/>
+      <c r="J168" s="21"/>
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
@@ -20558,12 +20568,12 @@
       <c r="Q168" s="2"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="19"/>
+      <c r="A169" s="20"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
-      <c r="D169" s="19"/>
-      <c r="H169" s="20"/>
-      <c r="J169" s="20"/>
+      <c r="D169" s="20"/>
+      <c r="H169" s="21"/>
+      <c r="J169" s="21"/>
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
@@ -20573,12 +20583,12 @@
       <c r="Q169" s="2"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="19"/>
+      <c r="A170" s="20"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
-      <c r="D170" s="19"/>
-      <c r="H170" s="20"/>
-      <c r="J170" s="20"/>
+      <c r="D170" s="20"/>
+      <c r="H170" s="21"/>
+      <c r="J170" s="21"/>
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
@@ -20588,12 +20598,12 @@
       <c r="Q170" s="2"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="19"/>
+      <c r="A171" s="20"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
-      <c r="D171" s="19"/>
-      <c r="H171" s="20"/>
-      <c r="J171" s="20"/>
+      <c r="D171" s="20"/>
+      <c r="H171" s="21"/>
+      <c r="J171" s="21"/>
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
@@ -20603,12 +20613,12 @@
       <c r="Q171" s="2"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="19"/>
+      <c r="A172" s="20"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
-      <c r="D172" s="19"/>
-      <c r="H172" s="20"/>
-      <c r="J172" s="20"/>
+      <c r="D172" s="20"/>
+      <c r="H172" s="21"/>
+      <c r="J172" s="21"/>
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
@@ -20618,12 +20628,12 @@
       <c r="Q172" s="2"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="19"/>
+      <c r="A173" s="20"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
-      <c r="D173" s="19"/>
-      <c r="H173" s="20"/>
-      <c r="J173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="H173" s="21"/>
+      <c r="J173" s="21"/>
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
@@ -20633,12 +20643,12 @@
       <c r="Q173" s="2"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="19"/>
+      <c r="A174" s="20"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
-      <c r="D174" s="19"/>
-      <c r="H174" s="20"/>
-      <c r="J174" s="20"/>
+      <c r="D174" s="20"/>
+      <c r="H174" s="21"/>
+      <c r="J174" s="21"/>
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
@@ -20648,12 +20658,12 @@
       <c r="Q174" s="2"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="19"/>
+      <c r="A175" s="20"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
-      <c r="D175" s="19"/>
-      <c r="H175" s="20"/>
-      <c r="J175" s="20"/>
+      <c r="D175" s="20"/>
+      <c r="H175" s="21"/>
+      <c r="J175" s="21"/>
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
@@ -20663,12 +20673,12 @@
       <c r="Q175" s="2"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="19"/>
+      <c r="A176" s="20"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
-      <c r="D176" s="19"/>
-      <c r="H176" s="20"/>
-      <c r="J176" s="20"/>
+      <c r="D176" s="20"/>
+      <c r="H176" s="21"/>
+      <c r="J176" s="21"/>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
@@ -20678,12 +20688,12 @@
       <c r="Q176" s="2"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="19"/>
+      <c r="A177" s="20"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
-      <c r="D177" s="19"/>
-      <c r="H177" s="20"/>
-      <c r="J177" s="20"/>
+      <c r="D177" s="20"/>
+      <c r="H177" s="21"/>
+      <c r="J177" s="21"/>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
@@ -20693,12 +20703,12 @@
       <c r="Q177" s="2"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="19"/>
+      <c r="A178" s="20"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
-      <c r="D178" s="19"/>
-      <c r="H178" s="20"/>
-      <c r="J178" s="20"/>
+      <c r="D178" s="20"/>
+      <c r="H178" s="21"/>
+      <c r="J178" s="21"/>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
@@ -20708,12 +20718,12 @@
       <c r="Q178" s="2"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="19"/>
+      <c r="A179" s="20"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
-      <c r="D179" s="19"/>
-      <c r="H179" s="20"/>
-      <c r="J179" s="20"/>
+      <c r="D179" s="20"/>
+      <c r="H179" s="21"/>
+      <c r="J179" s="21"/>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
@@ -20723,12 +20733,12 @@
       <c r="Q179" s="2"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="19"/>
+      <c r="A180" s="20"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
-      <c r="D180" s="19"/>
-      <c r="H180" s="20"/>
-      <c r="J180" s="20"/>
+      <c r="D180" s="20"/>
+      <c r="H180" s="21"/>
+      <c r="J180" s="21"/>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
@@ -20738,12 +20748,12 @@
       <c r="Q180" s="2"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="19"/>
+      <c r="A181" s="20"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
-      <c r="D181" s="19"/>
-      <c r="H181" s="20"/>
-      <c r="J181" s="20"/>
+      <c r="D181" s="20"/>
+      <c r="H181" s="21"/>
+      <c r="J181" s="21"/>
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
@@ -20753,12 +20763,12 @@
       <c r="Q181" s="2"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="19"/>
+      <c r="A182" s="20"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
-      <c r="D182" s="19"/>
-      <c r="H182" s="20"/>
-      <c r="J182" s="20"/>
+      <c r="D182" s="20"/>
+      <c r="H182" s="21"/>
+      <c r="J182" s="21"/>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
@@ -20768,12 +20778,12 @@
       <c r="Q182" s="2"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="19"/>
+      <c r="A183" s="20"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
-      <c r="D183" s="19"/>
-      <c r="H183" s="20"/>
-      <c r="J183" s="20"/>
+      <c r="D183" s="20"/>
+      <c r="H183" s="21"/>
+      <c r="J183" s="21"/>
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
@@ -20783,12 +20793,12 @@
       <c r="Q183" s="2"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="19"/>
+      <c r="A184" s="20"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
-      <c r="D184" s="19"/>
-      <c r="H184" s="20"/>
-      <c r="J184" s="20"/>
+      <c r="D184" s="20"/>
+      <c r="H184" s="21"/>
+      <c r="J184" s="21"/>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
@@ -20798,12 +20808,12 @@
       <c r="Q184" s="2"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="19"/>
+      <c r="A185" s="20"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
-      <c r="D185" s="19"/>
-      <c r="H185" s="20"/>
-      <c r="J185" s="20"/>
+      <c r="D185" s="20"/>
+      <c r="H185" s="21"/>
+      <c r="J185" s="21"/>
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
@@ -20813,12 +20823,12 @@
       <c r="Q185" s="2"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="19"/>
+      <c r="A186" s="20"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
-      <c r="D186" s="19"/>
-      <c r="H186" s="20"/>
-      <c r="J186" s="20"/>
+      <c r="D186" s="20"/>
+      <c r="H186" s="21"/>
+      <c r="J186" s="21"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
@@ -20828,12 +20838,12 @@
       <c r="Q186" s="2"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="19"/>
+      <c r="A187" s="20"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
-      <c r="D187" s="19"/>
-      <c r="H187" s="20"/>
-      <c r="J187" s="20"/>
+      <c r="D187" s="20"/>
+      <c r="H187" s="21"/>
+      <c r="J187" s="21"/>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
@@ -20843,12 +20853,12 @@
       <c r="Q187" s="2"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="19"/>
+      <c r="A188" s="20"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
-      <c r="D188" s="19"/>
-      <c r="H188" s="20"/>
-      <c r="J188" s="20"/>
+      <c r="D188" s="20"/>
+      <c r="H188" s="21"/>
+      <c r="J188" s="21"/>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
@@ -20858,12 +20868,12 @@
       <c r="Q188" s="2"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="19"/>
+      <c r="A189" s="20"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
-      <c r="D189" s="19"/>
-      <c r="H189" s="20"/>
-      <c r="J189" s="20"/>
+      <c r="D189" s="20"/>
+      <c r="H189" s="21"/>
+      <c r="J189" s="21"/>
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
@@ -20873,12 +20883,12 @@
       <c r="Q189" s="2"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="19"/>
+      <c r="A190" s="20"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
-      <c r="D190" s="19"/>
-      <c r="H190" s="20"/>
-      <c r="J190" s="20"/>
+      <c r="D190" s="20"/>
+      <c r="H190" s="21"/>
+      <c r="J190" s="21"/>
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
@@ -20888,12 +20898,12 @@
       <c r="Q190" s="2"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="19"/>
+      <c r="A191" s="20"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
-      <c r="D191" s="19"/>
-      <c r="H191" s="20"/>
-      <c r="J191" s="20"/>
+      <c r="D191" s="20"/>
+      <c r="H191" s="21"/>
+      <c r="J191" s="21"/>
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
@@ -20903,12 +20913,12 @@
       <c r="Q191" s="2"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="19"/>
+      <c r="A192" s="20"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
-      <c r="D192" s="19"/>
-      <c r="H192" s="20"/>
-      <c r="J192" s="20"/>
+      <c r="D192" s="20"/>
+      <c r="H192" s="21"/>
+      <c r="J192" s="21"/>
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
@@ -20918,12 +20928,12 @@
       <c r="Q192" s="2"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="19"/>
+      <c r="A193" s="20"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
-      <c r="D193" s="19"/>
-      <c r="H193" s="20"/>
-      <c r="J193" s="20"/>
+      <c r="D193" s="20"/>
+      <c r="H193" s="21"/>
+      <c r="J193" s="21"/>
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
@@ -20933,12 +20943,12 @@
       <c r="Q193" s="2"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="19"/>
+      <c r="A194" s="20"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
-      <c r="D194" s="19"/>
-      <c r="H194" s="20"/>
-      <c r="J194" s="20"/>
+      <c r="D194" s="20"/>
+      <c r="H194" s="21"/>
+      <c r="J194" s="21"/>
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
@@ -20948,12 +20958,12 @@
       <c r="Q194" s="2"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="19"/>
+      <c r="A195" s="20"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
-      <c r="D195" s="19"/>
-      <c r="H195" s="20"/>
-      <c r="J195" s="20"/>
+      <c r="D195" s="20"/>
+      <c r="H195" s="21"/>
+      <c r="J195" s="21"/>
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
@@ -20963,12 +20973,12 @@
       <c r="Q195" s="2"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="19"/>
+      <c r="A196" s="20"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
-      <c r="D196" s="19"/>
-      <c r="H196" s="20"/>
-      <c r="J196" s="20"/>
+      <c r="D196" s="20"/>
+      <c r="H196" s="21"/>
+      <c r="J196" s="21"/>
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
@@ -20978,12 +20988,12 @@
       <c r="Q196" s="2"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="19"/>
+      <c r="A197" s="20"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
-      <c r="D197" s="19"/>
-      <c r="H197" s="20"/>
-      <c r="J197" s="20"/>
+      <c r="D197" s="20"/>
+      <c r="H197" s="21"/>
+      <c r="J197" s="21"/>
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
@@ -20993,12 +21003,12 @@
       <c r="Q197" s="2"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="19"/>
+      <c r="A198" s="20"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
-      <c r="D198" s="19"/>
-      <c r="H198" s="20"/>
-      <c r="J198" s="20"/>
+      <c r="D198" s="20"/>
+      <c r="H198" s="21"/>
+      <c r="J198" s="21"/>
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
@@ -21008,12 +21018,12 @@
       <c r="Q198" s="2"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="19"/>
+      <c r="A199" s="20"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
-      <c r="D199" s="19"/>
-      <c r="H199" s="20"/>
-      <c r="J199" s="20"/>
+      <c r="D199" s="20"/>
+      <c r="H199" s="21"/>
+      <c r="J199" s="21"/>
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
@@ -21023,12 +21033,12 @@
       <c r="Q199" s="2"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="19"/>
+      <c r="A200" s="20"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
-      <c r="D200" s="19"/>
-      <c r="H200" s="20"/>
-      <c r="J200" s="20"/>
+      <c r="D200" s="20"/>
+      <c r="H200" s="21"/>
+      <c r="J200" s="21"/>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
       <c r="M200" s="2"/>
@@ -21038,12 +21048,12 @@
       <c r="Q200" s="2"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="19"/>
+      <c r="A201" s="20"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
-      <c r="D201" s="19"/>
-      <c r="H201" s="20"/>
-      <c r="J201" s="20"/>
+      <c r="D201" s="20"/>
+      <c r="H201" s="21"/>
+      <c r="J201" s="21"/>
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
       <c r="M201" s="2"/>
@@ -21053,12 +21063,12 @@
       <c r="Q201" s="2"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="19"/>
+      <c r="A202" s="20"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
-      <c r="D202" s="19"/>
-      <c r="H202" s="20"/>
-      <c r="J202" s="20"/>
+      <c r="D202" s="20"/>
+      <c r="H202" s="21"/>
+      <c r="J202" s="21"/>
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
       <c r="M202" s="2"/>
@@ -21068,12 +21078,12 @@
       <c r="Q202" s="2"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="19"/>
+      <c r="A203" s="20"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
-      <c r="D203" s="19"/>
-      <c r="H203" s="20"/>
-      <c r="J203" s="20"/>
+      <c r="D203" s="20"/>
+      <c r="H203" s="21"/>
+      <c r="J203" s="21"/>
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
@@ -21083,12 +21093,12 @@
       <c r="Q203" s="2"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="19"/>
+      <c r="A204" s="20"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
-      <c r="D204" s="19"/>
-      <c r="H204" s="20"/>
-      <c r="J204" s="20"/>
+      <c r="D204" s="20"/>
+      <c r="H204" s="21"/>
+      <c r="J204" s="21"/>
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
@@ -21098,12 +21108,12 @@
       <c r="Q204" s="2"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="19"/>
+      <c r="A205" s="20"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
-      <c r="D205" s="19"/>
-      <c r="H205" s="20"/>
-      <c r="J205" s="20"/>
+      <c r="D205" s="20"/>
+      <c r="H205" s="21"/>
+      <c r="J205" s="21"/>
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
@@ -21113,12 +21123,12 @@
       <c r="Q205" s="2"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="19"/>
+      <c r="A206" s="20"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
-      <c r="D206" s="19"/>
-      <c r="H206" s="20"/>
-      <c r="J206" s="20"/>
+      <c r="D206" s="20"/>
+      <c r="H206" s="21"/>
+      <c r="J206" s="21"/>
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
@@ -21128,12 +21138,12 @@
       <c r="Q206" s="2"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="19"/>
+      <c r="A207" s="20"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
-      <c r="D207" s="19"/>
-      <c r="H207" s="20"/>
-      <c r="J207" s="20"/>
+      <c r="D207" s="20"/>
+      <c r="H207" s="21"/>
+      <c r="J207" s="21"/>
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
@@ -21143,12 +21153,12 @@
       <c r="Q207" s="2"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="19"/>
+      <c r="A208" s="20"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
-      <c r="D208" s="19"/>
-      <c r="H208" s="20"/>
-      <c r="J208" s="20"/>
+      <c r="D208" s="20"/>
+      <c r="H208" s="21"/>
+      <c r="J208" s="21"/>
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
       <c r="M208" s="2"/>
@@ -21158,12 +21168,12 @@
       <c r="Q208" s="2"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="19"/>
+      <c r="A209" s="20"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
-      <c r="D209" s="19"/>
-      <c r="H209" s="20"/>
-      <c r="J209" s="20"/>
+      <c r="D209" s="20"/>
+      <c r="H209" s="21"/>
+      <c r="J209" s="21"/>
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
@@ -21173,12 +21183,12 @@
       <c r="Q209" s="2"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="19"/>
+      <c r="A210" s="20"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
-      <c r="D210" s="19"/>
-      <c r="H210" s="20"/>
-      <c r="J210" s="20"/>
+      <c r="D210" s="20"/>
+      <c r="H210" s="21"/>
+      <c r="J210" s="21"/>
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
@@ -21188,12 +21198,12 @@
       <c r="Q210" s="2"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="19"/>
+      <c r="A211" s="20"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
-      <c r="D211" s="19"/>
-      <c r="H211" s="20"/>
-      <c r="J211" s="20"/>
+      <c r="D211" s="20"/>
+      <c r="H211" s="21"/>
+      <c r="J211" s="21"/>
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
@@ -21203,12 +21213,12 @@
       <c r="Q211" s="2"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="19"/>
+      <c r="A212" s="20"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
-      <c r="D212" s="19"/>
-      <c r="H212" s="20"/>
-      <c r="J212" s="20"/>
+      <c r="D212" s="20"/>
+      <c r="H212" s="21"/>
+      <c r="J212" s="21"/>
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
@@ -21218,12 +21228,12 @@
       <c r="Q212" s="2"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="19"/>
+      <c r="A213" s="20"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
-      <c r="D213" s="19"/>
-      <c r="H213" s="20"/>
-      <c r="J213" s="20"/>
+      <c r="D213" s="20"/>
+      <c r="H213" s="21"/>
+      <c r="J213" s="21"/>
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
@@ -21233,12 +21243,12 @@
       <c r="Q213" s="2"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="19"/>
+      <c r="A214" s="20"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
-      <c r="D214" s="19"/>
-      <c r="H214" s="20"/>
-      <c r="J214" s="20"/>
+      <c r="D214" s="20"/>
+      <c r="H214" s="21"/>
+      <c r="J214" s="21"/>
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
@@ -21248,12 +21258,12 @@
       <c r="Q214" s="2"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="19"/>
+      <c r="A215" s="20"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
-      <c r="D215" s="19"/>
-      <c r="H215" s="20"/>
-      <c r="J215" s="20"/>
+      <c r="D215" s="20"/>
+      <c r="H215" s="21"/>
+      <c r="J215" s="21"/>
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
@@ -21263,12 +21273,12 @@
       <c r="Q215" s="2"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="19"/>
+      <c r="A216" s="20"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
-      <c r="D216" s="19"/>
-      <c r="H216" s="20"/>
-      <c r="J216" s="20"/>
+      <c r="D216" s="20"/>
+      <c r="H216" s="21"/>
+      <c r="J216" s="21"/>
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
@@ -21278,12 +21288,12 @@
       <c r="Q216" s="2"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="19"/>
+      <c r="A217" s="20"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
-      <c r="D217" s="19"/>
-      <c r="H217" s="20"/>
-      <c r="J217" s="20"/>
+      <c r="D217" s="20"/>
+      <c r="H217" s="21"/>
+      <c r="J217" s="21"/>
       <c r="K217" s="2"/>
       <c r="L217" s="2"/>
       <c r="M217" s="2"/>
@@ -21293,12 +21303,12 @@
       <c r="Q217" s="2"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="19"/>
+      <c r="A218" s="20"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
-      <c r="D218" s="19"/>
-      <c r="H218" s="20"/>
-      <c r="J218" s="20"/>
+      <c r="D218" s="20"/>
+      <c r="H218" s="21"/>
+      <c r="J218" s="21"/>
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
       <c r="M218" s="2"/>
@@ -21308,12 +21318,12 @@
       <c r="Q218" s="2"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="19"/>
+      <c r="A219" s="20"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
-      <c r="D219" s="19"/>
-      <c r="H219" s="20"/>
-      <c r="J219" s="20"/>
+      <c r="D219" s="20"/>
+      <c r="H219" s="21"/>
+      <c r="J219" s="21"/>
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
@@ -21323,12 +21333,12 @@
       <c r="Q219" s="2"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="19"/>
+      <c r="A220" s="20"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
-      <c r="D220" s="19"/>
-      <c r="H220" s="20"/>
-      <c r="J220" s="20"/>
+      <c r="D220" s="20"/>
+      <c r="H220" s="21"/>
+      <c r="J220" s="21"/>
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
       <c r="M220" s="2"/>
@@ -30557,7 +30567,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
@@ -30587,86 +30597,86 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="T1" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="U1" s="21" t="s">
+      <c r="V1" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="W1" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="X1" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Z1" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AA1" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="AA1" s="21" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30692,73 +30702,73 @@
         <v>36</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N2" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="R2" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="S2" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="U2" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="T2" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="U2" s="14" t="s">
+      <c r="V2" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="W2" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="X2" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="Y2" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Z2" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="AA2" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="AA2" s="14" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="14" t="n">
         <v>250</v>
@@ -30767,147 +30777,147 @@
         <v>33</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>45</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>48</v>
+        <v>141</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="N3" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="O3" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="P3" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="Q3" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="R3" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="S3" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="T3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="T3" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="U3" s="14" t="s">
+      <c r="V3" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="W3" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="X3" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="Y3" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="Z3" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="AA3" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="AA3" s="14" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>158</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14" t="n">
         <v>300</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="I4" s="24"/>
+      <c r="I4" s="25"/>
       <c r="K4" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="N4" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="O4" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="P4" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="Q4" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="R4" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="S4" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="T4" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="U4" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="V4" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="W4" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="W4" s="14" t="s">
+      <c r="X4" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="X4" s="14" t="s">
+      <c r="Y4" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="Y4" s="14" t="s">
+      <c r="Z4" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="AA4" s="14" t="s">
         <v>175</v>
-      </c>
-      <c r="AA4" s="14" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>30</v>
@@ -30917,213 +30927,213 @@
         <v>350</v>
       </c>
       <c r="E5" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>178</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>179</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="K5" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L5" s="25"/>
+      <c r="M5" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="K5" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="14" t="s">
+      <c r="N5" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="O5" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="P5" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="Q5" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="R5" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="S5" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="T5" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="U5" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="V5" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="W5" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="X5" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="Y5" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="Y5" s="14" t="s">
+      <c r="Z5" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="Z5" s="14" t="s">
+      <c r="AA5" s="14" t="s">
         <v>194</v>
-      </c>
-      <c r="AA5" s="14" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>196</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>197</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14" t="n">
         <v>400</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>35</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="K6" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="25"/>
+      <c r="M6" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="K6" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="14" t="s">
+      <c r="N6" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="O6" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="P6" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="Q6" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="R6" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="S6" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="T6" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="T6" s="14" t="s">
+      <c r="U6" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="V6" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="W6" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="W6" s="14" t="s">
+      <c r="X6" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="X6" s="14" t="s">
+      <c r="Y6" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="Y6" s="14" t="s">
+      <c r="Z6" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="Z6" s="14" t="s">
+      <c r="AA6" s="14" t="s">
         <v>213</v>
-      </c>
-      <c r="AA6" s="14" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>215</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>216</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14" t="n">
         <v>450</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="K7" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" s="25"/>
+      <c r="M7" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="K7" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="14" t="s">
+      <c r="N7" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="O7" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="P7" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="Q7" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="R7" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="S7" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="T7" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="U7" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="V7" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="W7" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="W7" s="14" t="s">
+      <c r="X7" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="X7" s="14" t="s">
+      <c r="Y7" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="Y7" s="14" t="s">
+      <c r="Z7" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="Z7" s="14" t="s">
+      <c r="AA7" s="14" t="s">
         <v>232</v>
-      </c>
-      <c r="AA7" s="14" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>47</v>
+        <v>233</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -31140,11 +31150,11 @@
       <c r="H8" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="I8" s="24"/>
+      <c r="I8" s="25"/>
       <c r="K8" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="L8" s="24"/>
+        <v>118</v>
+      </c>
+      <c r="L8" s="25"/>
       <c r="M8" s="14" t="s">
         <v>237</v>
       </c>
@@ -31197,18 +31207,18 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="I9" s="24"/>
+      <c r="I9" s="25"/>
       <c r="K9" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" s="24"/>
+        <v>99</v>
+      </c>
+      <c r="L9" s="25"/>
       <c r="M9" s="14" t="s">
         <v>253</v>
       </c>
@@ -31269,9 +31279,9 @@
         <v>269</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="L10" s="24"/>
+        <v>119</v>
+      </c>
+      <c r="L10" s="25"/>
       <c r="M10" s="14" t="s">
         <v>270</v>
       </c>
@@ -31331,11 +31341,11 @@
       <c r="H11" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="I11" s="24"/>
+      <c r="I11" s="25"/>
       <c r="K11" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="L11" s="24"/>
+        <v>120</v>
+      </c>
+      <c r="L11" s="25"/>
       <c r="M11" s="14" t="s">
         <v>287</v>
       </c>
@@ -31393,7 +31403,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="K12" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14" t="s">
@@ -31453,7 +31463,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="K13" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L13" s="14"/>
       <c r="M13" s="14" t="s">
@@ -31513,7 +31523,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="K14" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L14" s="14"/>
       <c r="M14" s="14" t="s">
@@ -31573,7 +31583,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="K15" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="14" t="s">
@@ -31633,7 +31643,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="K16" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="14" t="s">
@@ -31685,8 +31695,8 @@
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="21" t="s">
-        <v>70</v>
+      <c r="C17" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -31746,7 +31756,7 @@
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
